--- a/IVY_template.xlsx
+++ b/IVY_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="12150" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="12150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Comments" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="448">
   <si>
     <t>WARNING: DO NOT INSERT ANY COMMENTS IN THIS WORKBOOK!</t>
   </si>
@@ -1438,13 +1438,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF5B9BD5"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF5B9BD5"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1854,11 +1854,11 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2539,12 +2539,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="570"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="570" topLeftCell="A2"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="S28" sqref="S28"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,132 +2588,78 @@
         <v>41</v>
       </c>
       <c r="B1" s="41">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H4" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J4" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L4" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M4" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N4" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O4" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P4" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q4" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="R4" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="42" t="s">
+      <c r="S4" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="42" t="s">
+      <c r="T4" s="42" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="43">
-        <v>100000</v>
-      </c>
-      <c r="C4" s="43">
-        <v>1000000</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="43">
-        <v>20</v>
-      </c>
-      <c r="G4" s="43">
-        <v>0</v>
-      </c>
-      <c r="H4" s="43">
-        <v>1.6535424532024291E-7</v>
-      </c>
-      <c r="I4" s="43">
-        <v>9.7688432724200655E-7</v>
-      </c>
-      <c r="J4" s="43">
-        <v>5.8994792309264883E-7</v>
-      </c>
-      <c r="K4" s="43">
-        <v>8.7929679961471322E-7</v>
-      </c>
-      <c r="L4" s="43">
-        <v>20.692485416301182</v>
-      </c>
-      <c r="M4" s="43">
-        <v>108.0185169071211</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>0</v>
-      </c>
-      <c r="R4" s="43">
-        <v>0</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="T4" s="45" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -2730,31 +2676,31 @@
         <v>62</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F5" s="43">
         <v>20</v>
       </c>
       <c r="G5" s="43">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="43">
-        <v>-9.9999439991386441E-2</v>
+        <v>1.6535424532024291E-7</v>
       </c>
       <c r="I5" s="43">
-        <v>1.300200516809876E-6</v>
+        <v>9.7688432724200655E-7</v>
       </c>
       <c r="J5" s="43">
-        <v>0.99999809712941945</v>
+        <v>5.8994792309264883E-7</v>
       </c>
       <c r="K5" s="43">
-        <v>8.7407328542997039E-6</v>
+        <v>8.7929679961471322E-7</v>
       </c>
       <c r="L5" s="43">
-        <v>20.924065264809141</v>
+        <v>20.692485416301182</v>
       </c>
       <c r="M5" s="43">
-        <v>108.00441117682421</v>
+        <v>108.0185169071211</v>
       </c>
       <c r="N5" s="43" t="s">
         <v>64</v>
@@ -2771,11 +2717,11 @@
       <c r="R5" s="43">
         <v>0</v>
       </c>
-      <c r="S5" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="T5" s="47" t="s">
-        <v>70</v>
+      <c r="S5" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -2792,31 +2738,31 @@
         <v>62</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F6" s="43">
         <v>20</v>
       </c>
       <c r="G6" s="43">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="H6" s="43">
-        <v>0.1000001989083857</v>
+        <v>-9.9999439991386441E-2</v>
       </c>
       <c r="I6" s="43">
-        <v>1.9723465020487489E-6</v>
+        <v>1.300200516809876E-6</v>
       </c>
       <c r="J6" s="43">
-        <v>-1.0000060211258319</v>
+        <v>0.99999809712941945</v>
       </c>
       <c r="K6" s="43">
-        <v>1.163884870630302E-5</v>
+        <v>8.7407328542997039E-6</v>
       </c>
       <c r="L6" s="43">
-        <v>20.168912867133681</v>
+        <v>20.924065264809141</v>
       </c>
       <c r="M6" s="43">
-        <v>108.00647674160309</v>
+        <v>108.00441117682421</v>
       </c>
       <c r="N6" s="43" t="s">
         <v>64</v>
@@ -2834,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="S6" s="46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T6" s="47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -2854,31 +2800,31 @@
         <v>62</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" s="43">
         <v>20</v>
       </c>
       <c r="G7" s="43">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="43">
-        <v>1.177279267328127E-7</v>
+        <v>0.1000001989083857</v>
       </c>
       <c r="I7" s="43">
-        <v>1.166557267799614E-6</v>
+        <v>1.9723465020487489E-6</v>
       </c>
       <c r="J7" s="43">
-        <v>2.3918806027091302E-7</v>
+        <v>-1.0000060211258319</v>
       </c>
       <c r="K7" s="43">
-        <v>9.1108753075651978E-7</v>
+        <v>1.163884870630302E-5</v>
       </c>
       <c r="L7" s="43">
-        <v>20.435032394119691</v>
+        <v>20.168912867133681</v>
       </c>
       <c r="M7" s="43">
-        <v>107.98807285909569</v>
+        <v>108.00647674160309</v>
       </c>
       <c r="N7" s="43" t="s">
         <v>64</v>
@@ -2896,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="46" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T7" s="47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2913,10 +2859,10 @@
         <v>1000000</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F8" s="43">
         <v>20</v>
@@ -2924,23 +2870,23 @@
       <c r="G8" s="43">
         <v>0</v>
       </c>
-      <c r="H8" s="48">
-        <v>2.2082467508196881E-8</v>
-      </c>
-      <c r="I8" s="48">
-        <v>1.0098484535640989E-6</v>
+      <c r="H8" s="43">
+        <v>1.177279267328127E-7</v>
+      </c>
+      <c r="I8" s="43">
+        <v>1.166557267799614E-6</v>
       </c>
       <c r="J8" s="43">
-        <v>9.4775663456321606E-8</v>
+        <v>2.3918806027091302E-7</v>
       </c>
       <c r="K8" s="43">
-        <v>8.3457170550847248E-7</v>
+        <v>9.1108753075651978E-7</v>
       </c>
       <c r="L8" s="43">
-        <v>20.433720709072318</v>
+        <v>20.435032394119691</v>
       </c>
       <c r="M8" s="43">
-        <v>107.9890847207639</v>
+        <v>107.98807285909569</v>
       </c>
       <c r="N8" s="43" t="s">
         <v>64</v>
@@ -2958,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="T8" s="47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -2978,31 +2924,31 @@
         <v>77</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F9" s="43">
         <v>20</v>
       </c>
       <c r="G9" s="43">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="48">
-        <v>-0.1000001769921381</v>
+        <v>2.2082467508196881E-8</v>
       </c>
       <c r="I9" s="48">
-        <v>1.6866651411321669E-6</v>
+        <v>1.0098484535640989E-6</v>
       </c>
       <c r="J9" s="43">
-        <v>4.6912897761383359E-8</v>
+        <v>9.4775663456321606E-8</v>
       </c>
       <c r="K9" s="43">
-        <v>1.1027399294090279E-5</v>
+        <v>8.3457170550847248E-7</v>
       </c>
       <c r="L9" s="43">
-        <v>20.829860612736411</v>
+        <v>20.433720709072318</v>
       </c>
       <c r="M9" s="43">
-        <v>108.0117667347447</v>
+        <v>107.9890847207639</v>
       </c>
       <c r="N9" s="43" t="s">
         <v>64</v>
@@ -3020,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T9" s="47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -3040,31 +2986,31 @@
         <v>77</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F10" s="43">
         <v>20</v>
       </c>
       <c r="G10" s="43">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="H10" s="48">
-        <v>0.1000002120763536</v>
+        <v>-0.1000001769921381</v>
       </c>
       <c r="I10" s="48">
-        <v>1.7232909951508961E-6</v>
+        <v>1.6866651411321669E-6</v>
       </c>
       <c r="J10" s="43">
-        <v>2.2379161260586329E-6</v>
+        <v>4.6912897761383359E-8</v>
       </c>
       <c r="K10" s="43">
-        <v>1.132879999918373E-5</v>
+        <v>1.1027399294090279E-5</v>
       </c>
       <c r="L10" s="43">
-        <v>20.60359925673907</v>
+        <v>20.829860612736411</v>
       </c>
       <c r="M10" s="43">
-        <v>107.9977602478789</v>
+        <v>108.0117667347447</v>
       </c>
       <c r="N10" s="43" t="s">
         <v>64</v>
@@ -3081,11 +3027,11 @@
       <c r="R10" s="43">
         <v>0</v>
       </c>
-      <c r="S10" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="T10" s="50" t="s">
-        <v>86</v>
+      <c r="S10" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="47" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -3102,31 +3048,31 @@
         <v>77</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F11" s="43">
         <v>20</v>
       </c>
       <c r="G11" s="43">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H11" s="48">
-        <v>-3.2849313129488311E-8</v>
+        <v>0.1000002120763536</v>
       </c>
       <c r="I11" s="48">
-        <v>8.4055265051731195E-7</v>
+        <v>1.7232909951508961E-6</v>
       </c>
       <c r="J11" s="43">
-        <v>4.9081735525558836E-7</v>
+        <v>2.2379161260586329E-6</v>
       </c>
       <c r="K11" s="43">
-        <v>9.4880851890355726E-7</v>
+        <v>1.132879999918373E-5</v>
       </c>
       <c r="L11" s="43">
-        <v>20.82978297651357</v>
+        <v>20.60359925673907</v>
       </c>
       <c r="M11" s="43">
-        <v>107.9989811575978</v>
+        <v>107.9977602478789</v>
       </c>
       <c r="N11" s="43" t="s">
         <v>64</v>
@@ -3143,60 +3089,66 @@
       <c r="R11" s="43">
         <v>0</v>
       </c>
+      <c r="S11" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="50" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="43">
         <v>100000</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="43">
         <v>1000000</v>
       </c>
-      <c r="D12" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="51">
+      <c r="D12" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="43">
         <v>20</v>
       </c>
-      <c r="G12" s="51">
-        <v>0</v>
-      </c>
-      <c r="H12" s="51">
-        <v>1.043230180901704E-7</v>
-      </c>
-      <c r="I12" s="51">
-        <v>1.0608040662726161E-6</v>
-      </c>
-      <c r="J12" s="51">
-        <v>5.1191618520369837E-7</v>
-      </c>
-      <c r="K12" s="51">
-        <v>1.14982568578084E-6</v>
-      </c>
-      <c r="L12" s="51">
-        <v>20.60520775345918</v>
-      </c>
-      <c r="M12" s="51">
-        <v>107.9903585779613</v>
-      </c>
-      <c r="N12" s="51" t="s">
+      <c r="G12" s="43">
+        <v>0</v>
+      </c>
+      <c r="H12" s="48">
+        <v>-3.2849313129488311E-8</v>
+      </c>
+      <c r="I12" s="48">
+        <v>8.4055265051731195E-7</v>
+      </c>
+      <c r="J12" s="43">
+        <v>4.9081735525558836E-7</v>
+      </c>
+      <c r="K12" s="43">
+        <v>9.4880851890355726E-7</v>
+      </c>
+      <c r="L12" s="43">
+        <v>20.82978297651357</v>
+      </c>
+      <c r="M12" s="43">
+        <v>107.9989811575978</v>
+      </c>
+      <c r="N12" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="51" t="s">
+      <c r="O12" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="51">
-        <v>0</v>
-      </c>
-      <c r="R12" s="51">
+      <c r="P12" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>0</v>
+      </c>
+      <c r="R12" s="43">
         <v>0</v>
       </c>
     </row>
@@ -3214,31 +3166,31 @@
         <v>62</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="51">
         <v>20</v>
       </c>
       <c r="G13" s="51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="51">
-        <v>-0.99999843680342448</v>
+        <v>1.043230180901704E-7</v>
       </c>
       <c r="I13" s="51">
-        <v>8.8403107877673053E-6</v>
+        <v>1.0608040662726161E-6</v>
       </c>
       <c r="J13" s="51">
-        <v>9.9999844063238861</v>
+        <v>5.1191618520369837E-7</v>
       </c>
       <c r="K13" s="51">
-        <v>9.71969135228006E-5</v>
+        <v>1.14982568578084E-6</v>
       </c>
       <c r="L13" s="51">
-        <v>20.540717916196211</v>
+        <v>20.60520775345918</v>
       </c>
       <c r="M13" s="51">
-        <v>108.0035156101641</v>
+        <v>107.9903585779613</v>
       </c>
       <c r="N13" s="51" t="s">
         <v>64</v>
@@ -3270,31 +3222,31 @@
         <v>62</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="51">
         <v>20</v>
       </c>
       <c r="G14" s="51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="51">
-        <v>0.99999928537714777</v>
+        <v>-0.99999843680342448</v>
       </c>
       <c r="I14" s="51">
-        <v>1.0604426471689379E-5</v>
+        <v>8.8403107877673053E-6</v>
       </c>
       <c r="J14" s="51">
-        <v>-10.00002626818541</v>
+        <v>9.9999844063238861</v>
       </c>
       <c r="K14" s="51">
-        <v>1.042166915049861E-4</v>
+        <v>9.71969135228006E-5</v>
       </c>
       <c r="L14" s="51">
-        <v>20.4940823493096</v>
+        <v>20.540717916196211</v>
       </c>
       <c r="M14" s="51">
-        <v>108.0103013646265</v>
+        <v>108.0035156101641</v>
       </c>
       <c r="N14" s="51" t="s">
         <v>64</v>
@@ -3326,31 +3278,31 @@
         <v>62</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="51">
         <v>20</v>
       </c>
       <c r="G15" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="51">
-        <v>1.7908888342222789E-7</v>
+        <v>0.99999928537714777</v>
       </c>
       <c r="I15" s="51">
-        <v>8.1449345389520547E-7</v>
+        <v>1.0604426471689379E-5</v>
       </c>
       <c r="J15" s="51">
-        <v>3.3608501923704182E-7</v>
+        <v>-10.00002626818541</v>
       </c>
       <c r="K15" s="51">
-        <v>8.0930156436342921E-7</v>
+        <v>1.042166915049861E-4</v>
       </c>
       <c r="L15" s="51">
-        <v>20.63703553166863</v>
+        <v>20.4940823493096</v>
       </c>
       <c r="M15" s="51">
-        <v>107.9903939140209</v>
+        <v>108.0103013646265</v>
       </c>
       <c r="N15" s="51" t="s">
         <v>64</v>
@@ -3379,10 +3331,10 @@
         <v>1000000</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="51">
         <v>20</v>
@@ -3390,23 +3342,23 @@
       <c r="G16" s="51">
         <v>0</v>
       </c>
-      <c r="H16" s="52">
-        <v>2.9577520849956949E-8</v>
-      </c>
-      <c r="I16" s="52">
-        <v>8.5164956906876791E-7</v>
+      <c r="H16" s="51">
+        <v>1.7908888342222789E-7</v>
+      </c>
+      <c r="I16" s="51">
+        <v>8.1449345389520547E-7</v>
       </c>
       <c r="J16" s="51">
-        <v>-2.7182644622249209E-7</v>
+        <v>3.3608501923704182E-7</v>
       </c>
       <c r="K16" s="51">
-        <v>9.2078119864429172E-7</v>
+        <v>8.0930156436342921E-7</v>
       </c>
       <c r="L16" s="51">
-        <v>20.58404391553659</v>
+        <v>20.63703553166863</v>
       </c>
       <c r="M16" s="51">
-        <v>108.0192472233577</v>
+        <v>107.9903939140209</v>
       </c>
       <c r="N16" s="51" t="s">
         <v>64</v>
@@ -3438,31 +3390,31 @@
         <v>77</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" s="51">
         <v>20</v>
       </c>
       <c r="G17" s="51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="52">
-        <v>-0.99999902245261585</v>
+        <v>2.9577520849956949E-8</v>
       </c>
       <c r="I17" s="52">
-        <v>9.6011699550175887E-6</v>
+        <v>8.5164956906876791E-7</v>
       </c>
       <c r="J17" s="51">
-        <v>1.488685015948713E-5</v>
+        <v>-2.7182644622249209E-7</v>
       </c>
       <c r="K17" s="51">
-        <v>1.005786994378101E-4</v>
+        <v>9.2078119864429172E-7</v>
       </c>
       <c r="L17" s="51">
-        <v>20.607029971716461</v>
+        <v>20.58404391553659</v>
       </c>
       <c r="M17" s="51">
-        <v>108.0205022301015</v>
+        <v>108.0192472233577</v>
       </c>
       <c r="N17" s="51" t="s">
         <v>64</v>
@@ -3494,31 +3446,31 @@
         <v>77</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" s="51">
         <v>20</v>
       </c>
       <c r="G18" s="51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="52">
-        <v>1.0000033399565471</v>
+        <v>-0.99999902245261585</v>
       </c>
       <c r="I18" s="52">
-        <v>9.8845436395903917E-6</v>
+        <v>9.6011699550175887E-6</v>
       </c>
       <c r="J18" s="51">
-        <v>1.0788730309276109E-6</v>
+        <v>1.488685015948713E-5</v>
       </c>
       <c r="K18" s="51">
-        <v>1.182261489900015E-4</v>
+        <v>1.005786994378101E-4</v>
       </c>
       <c r="L18" s="51">
-        <v>20.542748618959781</v>
+        <v>20.607029971716461</v>
       </c>
       <c r="M18" s="51">
-        <v>107.98501545838811</v>
+        <v>108.0205022301015</v>
       </c>
       <c r="N18" s="51" t="s">
         <v>64</v>
@@ -3550,31 +3502,31 @@
         <v>77</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="51">
         <v>20</v>
       </c>
       <c r="G19" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="52">
-        <v>3.1739890739093477E-8</v>
+        <v>1.0000033399565471</v>
       </c>
       <c r="I19" s="52">
-        <v>1.236115749832685E-6</v>
+        <v>9.8845436395903917E-6</v>
       </c>
       <c r="J19" s="51">
-        <v>-9.5668684700356169E-8</v>
+        <v>1.0788730309276109E-6</v>
       </c>
       <c r="K19" s="51">
-        <v>1.024369905438836E-6</v>
+        <v>1.182261489900015E-4</v>
       </c>
       <c r="L19" s="51">
-        <v>20.202994679432251</v>
+        <v>20.542748618959781</v>
       </c>
       <c r="M19" s="51">
-        <v>108.0110584172352</v>
+        <v>107.98501545838811</v>
       </c>
       <c r="N19" s="51" t="s">
         <v>64</v>
@@ -3593,197 +3545,129 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="51">
+        <v>100000</v>
+      </c>
+      <c r="C20" s="51">
+        <v>1000000</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="51">
+        <v>20</v>
+      </c>
+      <c r="G20" s="51">
+        <v>0</v>
+      </c>
+      <c r="H20" s="52">
+        <v>3.1739890739093477E-8</v>
+      </c>
+      <c r="I20" s="52">
+        <v>1.236115749832685E-6</v>
+      </c>
+      <c r="J20" s="51">
+        <v>-9.5668684700356169E-8</v>
+      </c>
+      <c r="K20" s="51">
+        <v>1.024369905438836E-6</v>
+      </c>
+      <c r="L20" s="51">
+        <v>20.202994679432251</v>
+      </c>
+      <c r="M20" s="51">
+        <v>108.0110584172352</v>
+      </c>
+      <c r="N20" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="51">
+        <v>0</v>
+      </c>
+      <c r="R20" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B22" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B23" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C23" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D23" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E23" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F23" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G23" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H23" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I23" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J23" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K23" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L23" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M23" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="N21" s="42" t="s">
+      <c r="N23" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="O21" s="42" t="s">
+      <c r="O23" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="42" t="s">
+      <c r="P23" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="Q21" s="42" t="s">
+      <c r="Q23" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="R21" s="42" t="s">
+      <c r="R23" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="S21" s="42" t="s">
+      <c r="S23" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="T21" s="42" t="s">
+      <c r="T23" s="42" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="43">
-        <v>1000000</v>
-      </c>
-      <c r="C22" s="43">
-        <v>1000000</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="43">
-        <v>20</v>
-      </c>
-      <c r="G22" s="43">
-        <v>0</v>
-      </c>
-      <c r="H22" s="43">
-        <v>-7.0862656918973481E-8</v>
-      </c>
-      <c r="I22" s="43">
-        <v>8.2492141911443321E-7</v>
-      </c>
-      <c r="J22" s="43">
-        <v>-1.157637159856024E-7</v>
-      </c>
-      <c r="K22" s="43">
-        <v>8.3532706611426517E-7</v>
-      </c>
-      <c r="L22" s="43">
-        <v>20.616075090724991</v>
-      </c>
-      <c r="M22" s="43">
-        <v>107.9997017067486</v>
-      </c>
-      <c r="N22" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="O22" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="43">
-        <v>0</v>
-      </c>
-      <c r="R22" s="43">
-        <v>0</v>
-      </c>
-      <c r="S22" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="T22" s="54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="43">
-        <v>1000000</v>
-      </c>
-      <c r="C23" s="43">
-        <v>1000000</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="43">
-        <v>20</v>
-      </c>
-      <c r="G23" s="43">
-        <v>-0.1</v>
-      </c>
-      <c r="H23" s="43">
-        <v>-9.9999954294226007E-2</v>
-      </c>
-      <c r="I23" s="43">
-        <v>2.2609456749623549E-6</v>
-      </c>
-      <c r="J23" s="43">
-        <v>9.9999358003854816E-2</v>
-      </c>
-      <c r="K23" s="43">
-        <v>1.9142600856871258E-6</v>
-      </c>
-      <c r="L23" s="43">
-        <v>20.408543991795661</v>
-      </c>
-      <c r="M23" s="43">
-        <v>108.0044527985402</v>
-      </c>
-      <c r="N23" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="43">
-        <v>0</v>
-      </c>
-      <c r="R23" s="43">
-        <v>0</v>
-      </c>
-      <c r="S23" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="T23" s="56" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -3800,31 +3684,31 @@
         <v>62</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F24" s="43">
         <v>20</v>
       </c>
       <c r="G24" s="43">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="43">
-        <v>9.9999810128103883E-2</v>
+        <v>-7.0862656918973481E-8</v>
       </c>
       <c r="I24" s="43">
-        <v>1.9844997561831732E-6</v>
+        <v>8.2492141911443321E-7</v>
       </c>
       <c r="J24" s="43">
-        <v>-0.1000001362415924</v>
+        <v>-1.157637159856024E-7</v>
       </c>
       <c r="K24" s="43">
-        <v>2.3091683416907639E-6</v>
+        <v>8.3532706611426517E-7</v>
       </c>
       <c r="L24" s="43">
-        <v>21.186343527593291</v>
+        <v>20.616075090724991</v>
       </c>
       <c r="M24" s="43">
-        <v>107.99444747209419</v>
+        <v>107.9997017067486</v>
       </c>
       <c r="N24" s="43" t="s">
         <v>64</v>
@@ -3841,11 +3725,11 @@
       <c r="R24" s="43">
         <v>0</v>
       </c>
-      <c r="S24" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="T24" s="56" t="s">
-        <v>73</v>
+      <c r="S24" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="T24" s="54" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -3862,31 +3746,31 @@
         <v>62</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F25" s="43">
         <v>20</v>
       </c>
       <c r="G25" s="43">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H25" s="43">
-        <v>-2.9546741621585182E-7</v>
+        <v>-9.9999954294226007E-2</v>
       </c>
       <c r="I25" s="43">
-        <v>9.312016313094661E-7</v>
+        <v>2.2609456749623549E-6</v>
       </c>
       <c r="J25" s="43">
-        <v>-1.9410849686831329E-8</v>
+        <v>9.9999358003854816E-2</v>
       </c>
       <c r="K25" s="43">
-        <v>7.5705403987838191E-7</v>
+        <v>1.9142600856871258E-6</v>
       </c>
       <c r="L25" s="43">
-        <v>20.64232356446734</v>
+        <v>20.408543991795661</v>
       </c>
       <c r="M25" s="43">
-        <v>107.9988862169257</v>
+        <v>108.0044527985402</v>
       </c>
       <c r="N25" s="43" t="s">
         <v>64</v>
@@ -3904,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S25" s="55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T25" s="56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -3921,34 +3805,34 @@
         <v>1000000</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="43">
         <v>20</v>
       </c>
       <c r="G26" s="43">
-        <v>0</v>
-      </c>
-      <c r="H26" s="48">
-        <v>9.5344988316748626E-8</v>
-      </c>
-      <c r="I26" s="48">
-        <v>9.2998417370208525E-7</v>
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="43">
+        <v>9.9999810128103883E-2</v>
+      </c>
+      <c r="I26" s="43">
+        <v>1.9844997561831732E-6</v>
       </c>
       <c r="J26" s="43">
-        <v>-2.8795600117035182E-7</v>
+        <v>-0.1000001362415924</v>
       </c>
       <c r="K26" s="43">
-        <v>1.20922822056675E-6</v>
+        <v>2.3091683416907639E-6</v>
       </c>
       <c r="L26" s="43">
-        <v>20.392837766087158</v>
+        <v>21.186343527593291</v>
       </c>
       <c r="M26" s="43">
-        <v>108.0029363279651</v>
+        <v>107.99444747209419</v>
       </c>
       <c r="N26" s="43" t="s">
         <v>64</v>
@@ -3966,10 +3850,10 @@
         <v>0</v>
       </c>
       <c r="S26" s="55" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="T26" s="56" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3983,34 +3867,34 @@
         <v>1000000</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F27" s="43">
         <v>20</v>
       </c>
       <c r="G27" s="43">
-        <v>-0.1</v>
-      </c>
-      <c r="H27" s="48">
-        <v>-9.9999961791613176E-2</v>
-      </c>
-      <c r="I27" s="48">
-        <v>2.559220592618875E-6</v>
+        <v>0</v>
+      </c>
+      <c r="H27" s="43">
+        <v>-2.9546741621585182E-7</v>
+      </c>
+      <c r="I27" s="43">
+        <v>9.312016313094661E-7</v>
       </c>
       <c r="J27" s="43">
-        <v>7.0213412539045406E-7</v>
+        <v>-1.9410849686831329E-8</v>
       </c>
       <c r="K27" s="43">
-        <v>1.6862097198378391E-6</v>
+        <v>7.5705403987838191E-7</v>
       </c>
       <c r="L27" s="43">
-        <v>20.45309345079886</v>
+        <v>20.64232356446734</v>
       </c>
       <c r="M27" s="43">
-        <v>108.0045777799895</v>
+        <v>107.9988862169257</v>
       </c>
       <c r="N27" s="43" t="s">
         <v>64</v>
@@ -4028,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="S27" s="55" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="T27" s="56" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -4048,31 +3932,31 @@
         <v>77</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F28" s="43">
         <v>20</v>
       </c>
       <c r="G28" s="43">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="48">
-        <v>0.10000017116883279</v>
+        <v>9.5344988316748626E-8</v>
       </c>
       <c r="I28" s="48">
-        <v>2.6620315140931739E-6</v>
+        <v>9.2998417370208525E-7</v>
       </c>
       <c r="J28" s="43">
-        <v>-4.6635869559315688E-7</v>
+        <v>-2.8795600117035182E-7</v>
       </c>
       <c r="K28" s="43">
-        <v>2.1306286011569889E-6</v>
+        <v>1.20922822056675E-6</v>
       </c>
       <c r="L28" s="43">
-        <v>20.382324408145699</v>
+        <v>20.392837766087158</v>
       </c>
       <c r="M28" s="43">
-        <v>107.9963009809173</v>
+        <v>108.0029363279651</v>
       </c>
       <c r="N28" s="43" t="s">
         <v>64</v>
@@ -4089,11 +3973,11 @@
       <c r="R28" s="43">
         <v>0</v>
       </c>
-      <c r="S28" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="T28" s="58" t="s">
-        <v>86</v>
+      <c r="S28" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="T28" s="56" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -4110,31 +3994,31 @@
         <v>77</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F29" s="43">
         <v>20</v>
       </c>
       <c r="G29" s="43">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H29" s="48">
-        <v>1.872917283966511E-7</v>
+        <v>-9.9999961791613176E-2</v>
       </c>
       <c r="I29" s="48">
-        <v>8.6396092823531628E-7</v>
+        <v>2.559220592618875E-6</v>
       </c>
       <c r="J29" s="43">
-        <v>2.1772725512390919E-7</v>
+        <v>7.0213412539045406E-7</v>
       </c>
       <c r="K29" s="43">
-        <v>1.072453318140614E-6</v>
+        <v>1.6862097198378391E-6</v>
       </c>
       <c r="L29" s="43">
-        <v>20.410031726817451</v>
+        <v>20.45309345079886</v>
       </c>
       <c r="M29" s="43">
-        <v>108.0081332618611</v>
+        <v>108.0045777799895</v>
       </c>
       <c r="N29" s="43" t="s">
         <v>64</v>
@@ -4151,116 +4035,128 @@
       <c r="R29" s="43">
         <v>0</v>
       </c>
+      <c r="S29" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="T29" s="56" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="43">
         <v>1000000</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="43">
         <v>1000000</v>
       </c>
-      <c r="D30" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="51">
+      <c r="D30" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="43">
         <v>20</v>
       </c>
-      <c r="G30" s="51">
-        <v>0</v>
-      </c>
-      <c r="H30" s="51">
-        <v>3.2532898363602903E-7</v>
-      </c>
-      <c r="I30" s="51">
-        <v>1.1168438182187401E-6</v>
-      </c>
-      <c r="J30" s="51">
-        <v>-1.5378274489736499E-7</v>
-      </c>
-      <c r="K30" s="51">
-        <v>1.239733242843578E-6</v>
-      </c>
-      <c r="L30" s="51">
-        <v>20.750547213812489</v>
-      </c>
-      <c r="M30" s="51">
-        <v>107.9999992080396</v>
-      </c>
-      <c r="N30" s="51" t="s">
+      <c r="G30" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="48">
+        <v>0.10000017116883279</v>
+      </c>
+      <c r="I30" s="48">
+        <v>2.6620315140931739E-6</v>
+      </c>
+      <c r="J30" s="43">
+        <v>-4.6635869559315688E-7</v>
+      </c>
+      <c r="K30" s="43">
+        <v>2.1306286011569889E-6</v>
+      </c>
+      <c r="L30" s="43">
+        <v>20.382324408145699</v>
+      </c>
+      <c r="M30" s="43">
+        <v>107.9963009809173</v>
+      </c>
+      <c r="N30" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="O30" s="51" t="s">
+      <c r="O30" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="P30" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="51">
-        <v>0</v>
-      </c>
-      <c r="R30" s="51">
-        <v>0</v>
+      <c r="P30" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="43">
+        <v>0</v>
+      </c>
+      <c r="R30" s="43">
+        <v>0</v>
+      </c>
+      <c r="S30" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="T30" s="58" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="43">
         <v>1000000</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="43">
         <v>1000000</v>
       </c>
-      <c r="D31" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="51">
+      <c r="D31" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="43">
         <v>20</v>
       </c>
-      <c r="G31" s="51">
-        <v>-1</v>
-      </c>
-      <c r="H31" s="51">
-        <v>-0.99999637364015848</v>
-      </c>
-      <c r="I31" s="51">
-        <v>1.156535093017743E-5</v>
-      </c>
-      <c r="J31" s="51">
-        <v>0.99999985476856867</v>
-      </c>
-      <c r="K31" s="51">
-        <v>9.3538267507706424E-6</v>
-      </c>
-      <c r="L31" s="51">
-        <v>20.58164174673281</v>
-      </c>
-      <c r="M31" s="51">
-        <v>107.99946468043299</v>
-      </c>
-      <c r="N31" s="51" t="s">
+      <c r="G31" s="43">
+        <v>0</v>
+      </c>
+      <c r="H31" s="48">
+        <v>1.872917283966511E-7</v>
+      </c>
+      <c r="I31" s="48">
+        <v>8.6396092823531628E-7</v>
+      </c>
+      <c r="J31" s="43">
+        <v>2.1772725512390919E-7</v>
+      </c>
+      <c r="K31" s="43">
+        <v>1.072453318140614E-6</v>
+      </c>
+      <c r="L31" s="43">
+        <v>20.410031726817451</v>
+      </c>
+      <c r="M31" s="43">
+        <v>108.0081332618611</v>
+      </c>
+      <c r="N31" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="O31" s="51" t="s">
+      <c r="O31" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="P31" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="51">
-        <v>0</v>
-      </c>
-      <c r="R31" s="51">
+      <c r="P31" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="43">
+        <v>0</v>
+      </c>
+      <c r="R31" s="43">
         <v>0</v>
       </c>
     </row>
@@ -4278,31 +4174,31 @@
         <v>62</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F32" s="51">
         <v>20</v>
       </c>
       <c r="G32" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="51">
-        <v>1.0000009159190939</v>
+        <v>3.2532898363602903E-7</v>
       </c>
       <c r="I32" s="51">
-        <v>1.301985060063743E-5</v>
+        <v>1.1168438182187401E-6</v>
       </c>
       <c r="J32" s="51">
-        <v>-0.99999736626106461</v>
+        <v>-1.5378274489736499E-7</v>
       </c>
       <c r="K32" s="51">
-        <v>1.067330166895473E-5</v>
+        <v>1.239733242843578E-6</v>
       </c>
       <c r="L32" s="51">
-        <v>20.446838595494341</v>
+        <v>20.750547213812489</v>
       </c>
       <c r="M32" s="51">
-        <v>108.00085036857639</v>
+        <v>107.9999992080396</v>
       </c>
       <c r="N32" s="51" t="s">
         <v>64</v>
@@ -4320,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>98</v>
       </c>
@@ -4334,31 +4230,31 @@
         <v>62</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F33" s="51">
         <v>20</v>
       </c>
       <c r="G33" s="51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H33" s="51">
-        <v>2.2452433351564569E-8</v>
+        <v>-0.99999637364015848</v>
       </c>
       <c r="I33" s="51">
-        <v>1.13305898196576E-6</v>
+        <v>1.156535093017743E-5</v>
       </c>
       <c r="J33" s="51">
-        <v>1.350538800762791E-7</v>
+        <v>0.99999985476856867</v>
       </c>
       <c r="K33" s="51">
-        <v>1.1405830933669801E-6</v>
+        <v>9.3538267507706424E-6</v>
       </c>
       <c r="L33" s="51">
-        <v>20.822433065111539</v>
+        <v>20.58164174673281</v>
       </c>
       <c r="M33" s="51">
-        <v>107.99951092025481</v>
+        <v>107.99946468043299</v>
       </c>
       <c r="N33" s="51" t="s">
         <v>64</v>
@@ -4376,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
         <v>98</v>
       </c>
@@ -4387,34 +4283,34 @@
         <v>1000000</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F34" s="51">
         <v>20</v>
       </c>
       <c r="G34" s="51">
-        <v>0</v>
-      </c>
-      <c r="H34" s="52">
-        <v>-2.1262799961051439E-7</v>
-      </c>
-      <c r="I34" s="52">
-        <v>1.027654349387918E-6</v>
+        <v>1</v>
+      </c>
+      <c r="H34" s="51">
+        <v>1.0000009159190939</v>
+      </c>
+      <c r="I34" s="51">
+        <v>1.301985060063743E-5</v>
       </c>
       <c r="J34" s="51">
-        <v>1.5886936709526759E-7</v>
+        <v>-0.99999736626106461</v>
       </c>
       <c r="K34" s="51">
-        <v>1.259265733505533E-6</v>
+        <v>1.067330166895473E-5</v>
       </c>
       <c r="L34" s="51">
-        <v>20.405603240592018</v>
+        <v>20.446838595494341</v>
       </c>
       <c r="M34" s="51">
-        <v>107.99380534152</v>
+        <v>108.00085036857639</v>
       </c>
       <c r="N34" s="51" t="s">
         <v>64</v>
@@ -4432,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>98</v>
       </c>
@@ -4443,34 +4339,34 @@
         <v>1000000</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F35" s="51">
         <v>20</v>
       </c>
       <c r="G35" s="51">
-        <v>-1</v>
-      </c>
-      <c r="H35" s="52">
-        <v>-1.000000315851806</v>
-      </c>
-      <c r="I35" s="52">
-        <v>1.6701438922557101E-5</v>
+        <v>0</v>
+      </c>
+      <c r="H35" s="51">
+        <v>2.2452433351564569E-8</v>
+      </c>
+      <c r="I35" s="51">
+        <v>1.13305898196576E-6</v>
       </c>
       <c r="J35" s="51">
-        <v>1.3842157409625779E-6</v>
+        <v>1.350538800762791E-7</v>
       </c>
       <c r="K35" s="51">
-        <v>9.8166236247783203E-6</v>
+        <v>1.1405830933669801E-6</v>
       </c>
       <c r="L35" s="51">
-        <v>20.512619227195088</v>
+        <v>20.822433065111539</v>
       </c>
       <c r="M35" s="51">
-        <v>107.9963770118498</v>
+        <v>107.99951092025481</v>
       </c>
       <c r="N35" s="51" t="s">
         <v>64</v>
@@ -4488,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
         <v>98</v>
       </c>
@@ -4502,31 +4398,31 @@
         <v>77</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F36" s="51">
         <v>20</v>
       </c>
       <c r="G36" s="51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="52">
-        <v>1.0000034004439251</v>
+        <v>-2.1262799961051439E-7</v>
       </c>
       <c r="I36" s="52">
-        <v>1.1184213772461109E-5</v>
+        <v>1.027654349387918E-6</v>
       </c>
       <c r="J36" s="51">
-        <v>-3.6803975193013112E-6</v>
+        <v>1.5886936709526759E-7</v>
       </c>
       <c r="K36" s="51">
-        <v>1.3891659195575229E-5</v>
+        <v>1.259265733505533E-6</v>
       </c>
       <c r="L36" s="51">
-        <v>20.479643918171281</v>
+        <v>20.405603240592018</v>
       </c>
       <c r="M36" s="51">
-        <v>108.00508197528789</v>
+        <v>107.99380534152</v>
       </c>
       <c r="N36" s="51" t="s">
         <v>64</v>
@@ -4544,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
         <v>98</v>
       </c>
@@ -4558,31 +4454,31 @@
         <v>77</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" s="51">
         <v>20</v>
       </c>
       <c r="G37" s="51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H37" s="52">
-        <v>-9.6236139540002298E-9</v>
+        <v>-1.000000315851806</v>
       </c>
       <c r="I37" s="52">
-        <v>1.027462984734989E-6</v>
+        <v>1.6701438922557101E-5</v>
       </c>
       <c r="J37" s="51">
-        <v>-7.6384269314035401E-8</v>
+        <v>1.3842157409625779E-6</v>
       </c>
       <c r="K37" s="51">
-        <v>6.5017047333985786E-7</v>
+        <v>9.8166236247783203E-6</v>
       </c>
       <c r="L37" s="51">
-        <v>20.63494115251099</v>
+        <v>20.512619227195088</v>
       </c>
       <c r="M37" s="51">
-        <v>108.0058471423382</v>
+        <v>107.9963770118498</v>
       </c>
       <c r="N37" s="51" t="s">
         <v>64</v>
@@ -4600,119 +4496,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="59">
+      <c r="B38" s="51">
         <v>1000000</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="51">
         <v>1000000</v>
       </c>
-      <c r="D38" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="59">
+      <c r="D38" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="51">
         <v>20</v>
       </c>
-      <c r="G38" s="59">
-        <v>0</v>
-      </c>
-      <c r="H38" s="59">
-        <v>1.7103412922069461E-7</v>
-      </c>
-      <c r="I38" s="59">
-        <v>9.5788970955973505E-7</v>
-      </c>
-      <c r="J38" s="59">
-        <v>-2.266782663477714E-7</v>
-      </c>
-      <c r="K38" s="59">
-        <v>9.3302480251823527E-7</v>
-      </c>
-      <c r="L38" s="59">
-        <v>20.240521175283789</v>
-      </c>
-      <c r="M38" s="59">
-        <v>107.9886010336417</v>
-      </c>
-      <c r="N38" s="59" t="s">
+      <c r="G38" s="51">
+        <v>1</v>
+      </c>
+      <c r="H38" s="52">
+        <v>1.0000034004439251</v>
+      </c>
+      <c r="I38" s="52">
+        <v>1.1184213772461109E-5</v>
+      </c>
+      <c r="J38" s="51">
+        <v>-3.6803975193013112E-6</v>
+      </c>
+      <c r="K38" s="51">
+        <v>1.3891659195575229E-5</v>
+      </c>
+      <c r="L38" s="51">
+        <v>20.479643918171281</v>
+      </c>
+      <c r="M38" s="51">
+        <v>108.00508197528789</v>
+      </c>
+      <c r="N38" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="O38" s="59" t="s">
+      <c r="O38" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="P38" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="59">
-        <v>0</v>
-      </c>
-      <c r="R38" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
+      <c r="P38" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="51">
+        <v>0</v>
+      </c>
+      <c r="R38" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="59">
+      <c r="B39" s="51">
         <v>1000000</v>
       </c>
-      <c r="C39" s="59">
+      <c r="C39" s="51">
         <v>1000000</v>
       </c>
-      <c r="D39" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="59">
+      <c r="D39" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="51">
         <v>20</v>
       </c>
-      <c r="G39" s="59">
-        <v>-10</v>
-      </c>
-      <c r="H39" s="59">
-        <v>-9.9999834942891539</v>
-      </c>
-      <c r="I39" s="59">
-        <v>1.2320730914531681E-4</v>
-      </c>
-      <c r="J39" s="59">
-        <v>9.9999877682991176</v>
-      </c>
-      <c r="K39" s="59">
-        <v>9.7928056242306441E-5</v>
-      </c>
-      <c r="L39" s="59">
-        <v>20.59988516004551</v>
-      </c>
-      <c r="M39" s="59">
-        <v>108.0154528224397</v>
-      </c>
-      <c r="N39" s="59" t="s">
+      <c r="G39" s="51">
+        <v>0</v>
+      </c>
+      <c r="H39" s="52">
+        <v>-9.6236139540002298E-9</v>
+      </c>
+      <c r="I39" s="52">
+        <v>1.027462984734989E-6</v>
+      </c>
+      <c r="J39" s="51">
+        <v>-7.6384269314035401E-8</v>
+      </c>
+      <c r="K39" s="51">
+        <v>6.5017047333985786E-7</v>
+      </c>
+      <c r="L39" s="51">
+        <v>20.63494115251099</v>
+      </c>
+      <c r="M39" s="51">
+        <v>108.0058471423382</v>
+      </c>
+      <c r="N39" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="O39" s="59" t="s">
+      <c r="O39" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="P39" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="59">
-        <v>0</v>
-      </c>
-      <c r="R39" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P39" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="51">
+        <v>0</v>
+      </c>
+      <c r="R39" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
         <v>98</v>
       </c>
@@ -4726,31 +4622,31 @@
         <v>62</v>
       </c>
       <c r="E40" s="59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F40" s="59">
         <v>20</v>
       </c>
       <c r="G40" s="59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H40" s="59">
-        <v>9.9999867016247457</v>
+        <v>1.7103412922069461E-7</v>
       </c>
       <c r="I40" s="59">
-        <v>7.9946396573448312E-5</v>
+        <v>9.5788970955973505E-7</v>
       </c>
       <c r="J40" s="59">
-        <v>-9.999960350082322</v>
+        <v>-2.266782663477714E-7</v>
       </c>
       <c r="K40" s="59">
-        <v>9.721591329184521E-5</v>
+        <v>9.3302480251823527E-7</v>
       </c>
       <c r="L40" s="59">
-        <v>20.35674483471135</v>
+        <v>20.240521175283789</v>
       </c>
       <c r="M40" s="59">
-        <v>108.0111052243014</v>
+        <v>107.9886010336417</v>
       </c>
       <c r="N40" s="59" t="s">
         <v>64</v>
@@ -4768,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
         <v>98</v>
       </c>
@@ -4782,31 +4678,31 @@
         <v>62</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F41" s="59">
         <v>20</v>
       </c>
       <c r="G41" s="59">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H41" s="59">
-        <v>-3.9791142967976958E-8</v>
+        <v>-9.9999834942891539</v>
       </c>
       <c r="I41" s="59">
-        <v>7.9635580322720186E-7</v>
+        <v>1.2320730914531681E-4</v>
       </c>
       <c r="J41" s="59">
-        <v>3.6935355802024509E-7</v>
+        <v>9.9999877682991176</v>
       </c>
       <c r="K41" s="59">
-        <v>1.1927738504711901E-6</v>
+        <v>9.7928056242306441E-5</v>
       </c>
       <c r="L41" s="59">
-        <v>20.5641937296066</v>
+        <v>20.59988516004551</v>
       </c>
       <c r="M41" s="59">
-        <v>107.9833222306321</v>
+        <v>108.0154528224397</v>
       </c>
       <c r="N41" s="59" t="s">
         <v>64</v>
@@ -4824,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
         <v>98</v>
       </c>
@@ -4835,34 +4731,34 @@
         <v>1000000</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F42" s="59">
         <v>20</v>
       </c>
       <c r="G42" s="59">
-        <v>0</v>
-      </c>
-      <c r="H42" s="60">
-        <v>-1.697231747339152E-7</v>
-      </c>
-      <c r="I42" s="60">
-        <v>1.1707008468467739E-6</v>
+        <v>10</v>
+      </c>
+      <c r="H42" s="59">
+        <v>9.9999867016247457</v>
+      </c>
+      <c r="I42" s="59">
+        <v>7.9946396573448312E-5</v>
       </c>
       <c r="J42" s="59">
-        <v>3.1999798081163638E-7</v>
+        <v>-9.999960350082322</v>
       </c>
       <c r="K42" s="59">
-        <v>1.2943151240888489E-6</v>
+        <v>9.721591329184521E-5</v>
       </c>
       <c r="L42" s="59">
-        <v>20.186462906793189</v>
+        <v>20.35674483471135</v>
       </c>
       <c r="M42" s="59">
-        <v>108.0052172496104</v>
+        <v>108.0111052243014</v>
       </c>
       <c r="N42" s="59" t="s">
         <v>64</v>
@@ -4880,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
         <v>98</v>
       </c>
@@ -4891,34 +4787,34 @@
         <v>1000000</v>
       </c>
       <c r="D43" s="59" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E43" s="59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F43" s="59">
         <v>20</v>
       </c>
       <c r="G43" s="59">
-        <v>-10</v>
-      </c>
-      <c r="H43" s="60">
-        <v>-9.9999897520679237</v>
-      </c>
-      <c r="I43" s="60">
-        <v>1.217751345413785E-4</v>
+        <v>0</v>
+      </c>
+      <c r="H43" s="59">
+        <v>-3.9791142967976958E-8</v>
+      </c>
+      <c r="I43" s="59">
+        <v>7.9635580322720186E-7</v>
       </c>
       <c r="J43" s="59">
-        <v>-1.032282241689853E-5</v>
+        <v>3.6935355802024509E-7</v>
       </c>
       <c r="K43" s="59">
-        <v>1.0305123698720179E-4</v>
+        <v>1.1927738504711901E-6</v>
       </c>
       <c r="L43" s="59">
-        <v>20.557524970049279</v>
+        <v>20.5641937296066</v>
       </c>
       <c r="M43" s="59">
-        <v>108.00404310341629</v>
+        <v>107.9833222306321</v>
       </c>
       <c r="N43" s="59" t="s">
         <v>64</v>
@@ -4936,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
         <v>98</v>
       </c>
@@ -4950,31 +4846,31 @@
         <v>77</v>
       </c>
       <c r="E44" s="59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F44" s="59">
         <v>20</v>
       </c>
       <c r="G44" s="59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H44" s="60">
-        <v>9.9999698150890044</v>
+        <v>-1.697231747339152E-7</v>
       </c>
       <c r="I44" s="60">
-        <v>8.1064554471068907E-5</v>
+        <v>1.1707008468467739E-6</v>
       </c>
       <c r="J44" s="59">
-        <v>3.183769613441527E-5</v>
+        <v>3.1999798081163638E-7</v>
       </c>
       <c r="K44" s="59">
-        <v>8.750071707608403E-5</v>
+        <v>1.2943151240888489E-6</v>
       </c>
       <c r="L44" s="59">
-        <v>20.432099374045091</v>
+        <v>20.186462906793189</v>
       </c>
       <c r="M44" s="59">
-        <v>107.9791366768105</v>
+        <v>108.0052172496104</v>
       </c>
       <c r="N44" s="59" t="s">
         <v>64</v>
@@ -4992,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
         <v>98</v>
       </c>
@@ -5006,31 +4902,31 @@
         <v>77</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F45" s="59">
         <v>20</v>
       </c>
       <c r="G45" s="59">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H45" s="60">
-        <v>9.1739954203842216E-8</v>
+        <v>-9.9999897520679237</v>
       </c>
       <c r="I45" s="60">
-        <v>1.018800988611917E-6</v>
+        <v>1.217751345413785E-4</v>
       </c>
       <c r="J45" s="59">
-        <v>-1.7634512055898261E-7</v>
+        <v>-1.032282241689853E-5</v>
       </c>
       <c r="K45" s="59">
-        <v>9.5729797521453914E-7</v>
+        <v>1.0305123698720179E-4</v>
       </c>
       <c r="L45" s="59">
-        <v>20.750685836900029</v>
+        <v>20.557524970049279</v>
       </c>
       <c r="M45" s="59">
-        <v>107.9802135232455</v>
+        <v>108.00404310341629</v>
       </c>
       <c r="N45" s="59" t="s">
         <v>64</v>
@@ -5048,198 +4944,186 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="61" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="59">
+        <v>1000000</v>
+      </c>
+      <c r="C46" s="59">
+        <v>1000000</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="59">
+        <v>20</v>
+      </c>
+      <c r="G46" s="59">
+        <v>10</v>
+      </c>
+      <c r="H46" s="60">
+        <v>9.9999698150890044</v>
+      </c>
+      <c r="I46" s="60">
+        <v>8.1064554471068907E-5</v>
+      </c>
+      <c r="J46" s="59">
+        <v>3.183769613441527E-5</v>
+      </c>
+      <c r="K46" s="59">
+        <v>8.750071707608403E-5</v>
+      </c>
+      <c r="L46" s="59">
+        <v>20.432099374045091</v>
+      </c>
+      <c r="M46" s="59">
+        <v>107.9791366768105</v>
+      </c>
+      <c r="N46" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="O46" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P46" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="59">
+        <v>0</v>
+      </c>
+      <c r="R46" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="59">
+        <v>1000000</v>
+      </c>
+      <c r="C47" s="59">
+        <v>1000000</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="59">
+        <v>20</v>
+      </c>
+      <c r="G47" s="59">
+        <v>0</v>
+      </c>
+      <c r="H47" s="60">
+        <v>9.1739954203842216E-8</v>
+      </c>
+      <c r="I47" s="60">
+        <v>1.018800988611917E-6</v>
+      </c>
+      <c r="J47" s="59">
+        <v>-1.7634512055898261E-7</v>
+      </c>
+      <c r="K47" s="59">
+        <v>9.5729797521453914E-7</v>
+      </c>
+      <c r="L47" s="59">
+        <v>20.750685836900029</v>
+      </c>
+      <c r="M47" s="59">
+        <v>107.9802135232455</v>
+      </c>
+      <c r="N47" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="O47" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P47" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="59">
+        <v>0</v>
+      </c>
+      <c r="R47" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B49" s="61" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J48" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="L48" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="N48" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O48" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="P48" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q48" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="R48" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="S48" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="T48" s="42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="42">
-        <v>100000000</v>
-      </c>
-      <c r="C49" s="42">
-        <v>10000000</v>
-      </c>
-      <c r="D49" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="42">
-        <v>20</v>
-      </c>
-      <c r="G49" s="42">
-        <v>0</v>
-      </c>
-      <c r="H49" s="42">
-        <v>-3.571497444227242E-7</v>
-      </c>
-      <c r="I49" s="42">
-        <v>1.097101390673675E-6</v>
-      </c>
-      <c r="J49" s="42">
-        <v>1.101983103055069E-7</v>
-      </c>
-      <c r="K49" s="42">
-        <v>1.009974129675528E-6</v>
-      </c>
-      <c r="L49" s="42">
-        <v>20.620695737635199</v>
-      </c>
-      <c r="M49" s="42">
-        <v>107.99774652189549</v>
-      </c>
-      <c r="N49" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="O49" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="P49" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="42">
-        <v>0</v>
-      </c>
-      <c r="R49" s="42">
-        <v>0</v>
-      </c>
-      <c r="S49" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="T49" s="63" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="42">
-        <v>100000000</v>
-      </c>
-      <c r="C50" s="42">
-        <v>10000000</v>
+        <v>42</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" s="42">
-        <v>20</v>
-      </c>
-      <c r="G50" s="42">
-        <v>-0.1</v>
-      </c>
-      <c r="H50" s="42">
-        <v>-9.9999587784921906E-2</v>
-      </c>
-      <c r="I50" s="42">
-        <v>2.23798238765592E-6</v>
-      </c>
-      <c r="J50" s="42">
-        <v>1.000020765938491E-2</v>
-      </c>
-      <c r="K50" s="42">
-        <v>9.5632950185285167E-7</v>
-      </c>
-      <c r="L50" s="42">
-        <v>20.59055602989547</v>
-      </c>
-      <c r="M50" s="42">
-        <v>108.01473032805541</v>
+        <v>46</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J50" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="L50" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="42" t="s">
+        <v>53</v>
       </c>
       <c r="N50" s="42" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O50" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="P50" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="42">
-        <v>0</v>
-      </c>
-      <c r="R50" s="42">
-        <v>0</v>
-      </c>
-      <c r="S50" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="T50" s="65" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="P50" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="R50" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="S50" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="T50" s="42" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -5256,31 +5140,31 @@
         <v>62</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F51" s="42">
         <v>20</v>
       </c>
       <c r="G51" s="42">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="42">
-        <v>9.9999264653670511E-2</v>
+        <v>-3.571497444227242E-7</v>
       </c>
       <c r="I51" s="42">
-        <v>1.335161239397657E-6</v>
+        <v>1.097101390673675E-6</v>
       </c>
       <c r="J51" s="42">
-        <v>-9.9998122319977477E-3</v>
+        <v>1.101983103055069E-7</v>
       </c>
       <c r="K51" s="42">
-        <v>1.157519919180399E-6</v>
+        <v>1.009974129675528E-6</v>
       </c>
       <c r="L51" s="42">
-        <v>20.633736963166061</v>
+        <v>20.620695737635199</v>
       </c>
       <c r="M51" s="42">
-        <v>108.0017629344367</v>
+        <v>107.99774652189549</v>
       </c>
       <c r="N51" s="42" t="s">
         <v>64</v>
@@ -5297,11 +5181,11 @@
       <c r="R51" s="42">
         <v>0</v>
       </c>
-      <c r="S51" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="T51" s="65" t="s">
-        <v>73</v>
+      <c r="S51" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="T51" s="63" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -5318,31 +5202,31 @@
         <v>62</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F52" s="42">
         <v>20</v>
       </c>
       <c r="G52" s="42">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H52" s="42">
-        <v>1.7078281539309991E-7</v>
+        <v>-9.9999587784921906E-2</v>
       </c>
       <c r="I52" s="42">
-        <v>1.1005327988159939E-6</v>
+        <v>2.23798238765592E-6</v>
       </c>
       <c r="J52" s="42">
-        <v>-2.7071424382348861E-7</v>
+        <v>1.000020765938491E-2</v>
       </c>
       <c r="K52" s="42">
-        <v>1.123348877359649E-6</v>
+        <v>9.5632950185285167E-7</v>
       </c>
       <c r="L52" s="42">
-        <v>20.622763154196051</v>
+        <v>20.59055602989547</v>
       </c>
       <c r="M52" s="42">
-        <v>107.99633331319789</v>
+        <v>108.01473032805541</v>
       </c>
       <c r="N52" s="42" t="s">
         <v>64</v>
@@ -5360,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="S52" s="64" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T52" s="65" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -5377,34 +5261,34 @@
         <v>10000000</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F53" s="42">
         <v>20</v>
       </c>
       <c r="G53" s="42">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H53" s="42">
-        <v>1.8911951727158461E-7</v>
+        <v>9.9999264653670511E-2</v>
       </c>
       <c r="I53" s="42">
-        <v>1.0869104445720209E-6</v>
+        <v>1.335161239397657E-6</v>
       </c>
       <c r="J53" s="42">
-        <v>-1.054726596527278E-7</v>
+        <v>-9.9998122319977477E-3</v>
       </c>
       <c r="K53" s="42">
-        <v>9.011580739629565E-7</v>
+        <v>1.157519919180399E-6</v>
       </c>
       <c r="L53" s="42">
-        <v>20.599946280508679</v>
+        <v>20.633736963166061</v>
       </c>
       <c r="M53" s="42">
-        <v>108.0096105434848</v>
+        <v>108.0017629344367</v>
       </c>
       <c r="N53" s="42" t="s">
         <v>64</v>
@@ -5422,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="S53" s="64" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="T53" s="65" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -5439,34 +5323,34 @@
         <v>10000000</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F54" s="42">
         <v>20</v>
       </c>
       <c r="G54" s="42">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="42">
-        <v>-9.9999805686051643E-2</v>
+        <v>1.7078281539309991E-7</v>
       </c>
       <c r="I54" s="42">
-        <v>2.1115933145681151E-6</v>
+        <v>1.1005327988159939E-6</v>
       </c>
       <c r="J54" s="42">
-        <v>-2.1913311786864691E-7</v>
+        <v>-2.7071424382348861E-7</v>
       </c>
       <c r="K54" s="42">
-        <v>1.1272967532656981E-6</v>
+        <v>1.123348877359649E-6</v>
       </c>
       <c r="L54" s="42">
-        <v>20.1734868927837</v>
+        <v>20.622763154196051</v>
       </c>
       <c r="M54" s="42">
-        <v>108.010575758313</v>
+        <v>107.99633331319789</v>
       </c>
       <c r="N54" s="42" t="s">
         <v>64</v>
@@ -5484,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="S54" s="64" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="T54" s="65" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -5504,31 +5388,31 @@
         <v>77</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F55" s="42">
         <v>20</v>
       </c>
       <c r="G55" s="42">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="42">
-        <v>0.1000001765880036</v>
+        <v>1.8911951727158461E-7</v>
       </c>
       <c r="I55" s="42">
-        <v>1.7240729489488951E-6</v>
+        <v>1.0869104445720209E-6</v>
       </c>
       <c r="J55" s="42">
-        <v>-2.891694682635999E-7</v>
+        <v>-1.054726596527278E-7</v>
       </c>
       <c r="K55" s="42">
-        <v>1.119342691841005E-6</v>
+        <v>9.011580739629565E-7</v>
       </c>
       <c r="L55" s="42">
-        <v>20.307982799432271</v>
+        <v>20.599946280508679</v>
       </c>
       <c r="M55" s="42">
-        <v>107.9930375009486</v>
+        <v>108.0096105434848</v>
       </c>
       <c r="N55" s="42" t="s">
         <v>64</v>
@@ -5545,11 +5429,11 @@
       <c r="R55" s="42">
         <v>0</v>
       </c>
-      <c r="S55" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="T55" s="67" t="s">
-        <v>86</v>
+      <c r="S55" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="T55" s="65" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -5566,31 +5450,31 @@
         <v>77</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F56" s="42">
         <v>20</v>
       </c>
       <c r="G56" s="42">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H56" s="42">
-        <v>8.3810862204933571E-8</v>
+        <v>-9.9999805686051643E-2</v>
       </c>
       <c r="I56" s="42">
-        <v>8.3501485482641314E-7</v>
+        <v>2.1115933145681151E-6</v>
       </c>
       <c r="J56" s="42">
-        <v>6.0506692722657893E-8</v>
+        <v>-2.1913311786864691E-7</v>
       </c>
       <c r="K56" s="42">
-        <v>9.9853133312348311E-7</v>
+        <v>1.1272967532656981E-6</v>
       </c>
       <c r="L56" s="42">
-        <v>20.239389017943061</v>
+        <v>20.1734868927837</v>
       </c>
       <c r="M56" s="42">
-        <v>108.009667149153</v>
+        <v>108.010575758313</v>
       </c>
       <c r="N56" s="42" t="s">
         <v>64</v>
@@ -5606,6 +5490,12 @@
       </c>
       <c r="R56" s="42">
         <v>0</v>
+      </c>
+      <c r="S56" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="T56" s="65" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -5619,34 +5509,34 @@
         <v>10000000</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F57" s="42">
         <v>20</v>
       </c>
       <c r="G57" s="42">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H57" s="42">
-        <v>-8.3892529561174833E-8</v>
+        <v>0.1000001765880036</v>
       </c>
       <c r="I57" s="42">
-        <v>1.129741672908929E-6</v>
+        <v>1.7240729489488951E-6</v>
       </c>
       <c r="J57" s="42">
-        <v>3.2659315810514668E-7</v>
+        <v>-2.891694682635999E-7</v>
       </c>
       <c r="K57" s="42">
-        <v>1.158124753683184E-6</v>
+        <v>1.119342691841005E-6</v>
       </c>
       <c r="L57" s="42">
-        <v>20.58955897737513</v>
+        <v>20.307982799432271</v>
       </c>
       <c r="M57" s="42">
-        <v>108.01080176389139</v>
+        <v>107.9930375009486</v>
       </c>
       <c r="N57" s="42" t="s">
         <v>64</v>
@@ -5662,6 +5552,12 @@
       </c>
       <c r="R57" s="42">
         <v>0</v>
+      </c>
+      <c r="S57" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="T57" s="67" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -5675,34 +5571,34 @@
         <v>10000000</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F58" s="42">
         <v>20</v>
       </c>
       <c r="G58" s="42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="42">
-        <v>-1.000002406615095</v>
+        <v>8.3810862204933571E-8</v>
       </c>
       <c r="I58" s="42">
-        <v>1.007848227596929E-5</v>
+        <v>8.3501485482641314E-7</v>
       </c>
       <c r="J58" s="42">
-        <v>9.9998578676185626E-2</v>
+        <v>6.0506692722657893E-8</v>
       </c>
       <c r="K58" s="42">
-        <v>2.055513454956669E-6</v>
+        <v>9.9853133312348311E-7</v>
       </c>
       <c r="L58" s="42">
-        <v>20.556507992158782</v>
+        <v>20.239389017943061</v>
       </c>
       <c r="M58" s="42">
-        <v>108.0097313982079</v>
+        <v>108.009667149153</v>
       </c>
       <c r="N58" s="42" t="s">
         <v>64</v>
@@ -5734,31 +5630,31 @@
         <v>62</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F59" s="42">
         <v>20</v>
       </c>
       <c r="G59" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="42">
-        <v>0.9999996665834251</v>
+        <v>-8.3892529561174833E-8</v>
       </c>
       <c r="I59" s="42">
-        <v>1.024608554929067E-5</v>
+        <v>1.129741672908929E-6</v>
       </c>
       <c r="J59" s="42">
-        <v>-9.9999750454204783E-2</v>
+        <v>3.2659315810514668E-7</v>
       </c>
       <c r="K59" s="42">
-        <v>2.1492891208987191E-6</v>
+        <v>1.158124753683184E-6</v>
       </c>
       <c r="L59" s="42">
-        <v>20.664371084027341</v>
+        <v>20.58955897737513</v>
       </c>
       <c r="M59" s="42">
-        <v>108.0091635299481</v>
+        <v>108.01080176389139</v>
       </c>
       <c r="N59" s="42" t="s">
         <v>64</v>
@@ -5790,31 +5686,31 @@
         <v>62</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F60" s="42">
         <v>20</v>
       </c>
       <c r="G60" s="42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H60" s="42">
-        <v>1.4318234606517781E-7</v>
+        <v>-1.000002406615095</v>
       </c>
       <c r="I60" s="42">
-        <v>8.1917274029067167E-7</v>
+        <v>1.007848227596929E-5</v>
       </c>
       <c r="J60" s="42">
-        <v>-3.9739597528511632E-8</v>
+        <v>9.9998578676185626E-2</v>
       </c>
       <c r="K60" s="42">
-        <v>7.9253345396706868E-7</v>
+        <v>2.055513454956669E-6</v>
       </c>
       <c r="L60" s="42">
-        <v>20.397244939444199</v>
+        <v>20.556507992158782</v>
       </c>
       <c r="M60" s="42">
-        <v>107.9778252335468</v>
+        <v>108.0097313982079</v>
       </c>
       <c r="N60" s="42" t="s">
         <v>64</v>
@@ -5843,34 +5739,34 @@
         <v>10000000</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F61" s="42">
         <v>20</v>
       </c>
       <c r="G61" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="42">
-        <v>1.9190815592624419E-7</v>
+        <v>0.9999996665834251</v>
       </c>
       <c r="I61" s="42">
-        <v>1.1314651682880089E-6</v>
+        <v>1.024608554929067E-5</v>
       </c>
       <c r="J61" s="42">
-        <v>4.4357970087597112E-7</v>
+        <v>-9.9999750454204783E-2</v>
       </c>
       <c r="K61" s="42">
-        <v>9.3620917524069772E-7</v>
+        <v>2.1492891208987191E-6</v>
       </c>
       <c r="L61" s="42">
-        <v>20.3956404061421</v>
+        <v>20.664371084027341</v>
       </c>
       <c r="M61" s="42">
-        <v>107.973989332239</v>
+        <v>108.0091635299481</v>
       </c>
       <c r="N61" s="42" t="s">
         <v>64</v>
@@ -5899,34 +5795,34 @@
         <v>10000000</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F62" s="42">
         <v>20</v>
       </c>
       <c r="G62" s="42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="42">
-        <v>-1.0000022115059251</v>
+        <v>1.4318234606517781E-7</v>
       </c>
       <c r="I62" s="42">
-        <v>1.004776018512994E-5</v>
+        <v>8.1917274029067167E-7</v>
       </c>
       <c r="J62" s="42">
-        <v>-5.5183336622669574E-7</v>
+        <v>-3.9739597528511632E-8</v>
       </c>
       <c r="K62" s="42">
-        <v>2.1611713918934502E-6</v>
+        <v>7.9253345396706868E-7</v>
       </c>
       <c r="L62" s="42">
-        <v>20.38971364283724</v>
+        <v>20.397244939444199</v>
       </c>
       <c r="M62" s="42">
-        <v>107.9990377412054</v>
+        <v>107.9778252335468</v>
       </c>
       <c r="N62" s="42" t="s">
         <v>64</v>
@@ -5958,31 +5854,31 @@
         <v>77</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F63" s="42">
         <v>20</v>
       </c>
       <c r="G63" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="42">
-        <v>0.99999866530618742</v>
+        <v>1.9190815592624419E-7</v>
       </c>
       <c r="I63" s="42">
-        <v>1.065423223615718E-5</v>
+        <v>1.1314651682880089E-6</v>
       </c>
       <c r="J63" s="42">
-        <v>-5.4923730617626944E-7</v>
+        <v>4.4357970087597112E-7</v>
       </c>
       <c r="K63" s="42">
-        <v>1.769267262190784E-6</v>
+        <v>9.3620917524069772E-7</v>
       </c>
       <c r="L63" s="42">
-        <v>20.483279693783839</v>
+        <v>20.3956404061421</v>
       </c>
       <c r="M63" s="42">
-        <v>108.0063751941386</v>
+        <v>107.973989332239</v>
       </c>
       <c r="N63" s="42" t="s">
         <v>64</v>
@@ -6014,31 +5910,31 @@
         <v>77</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F64" s="42">
         <v>20</v>
       </c>
       <c r="G64" s="42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H64" s="42">
-        <v>1.368440872449583E-7</v>
+        <v>-1.0000022115059251</v>
       </c>
       <c r="I64" s="42">
-        <v>7.9141281867660523E-7</v>
+        <v>1.004776018512994E-5</v>
       </c>
       <c r="J64" s="42">
-        <v>1.2887184826873221E-7</v>
+        <v>-5.5183336622669574E-7</v>
       </c>
       <c r="K64" s="42">
-        <v>1.195967093536109E-6</v>
+        <v>2.1611713918934502E-6</v>
       </c>
       <c r="L64" s="42">
-        <v>20.547149068885609</v>
+        <v>20.38971364283724</v>
       </c>
       <c r="M64" s="42">
-        <v>108.00795049079061</v>
+        <v>107.9990377412054</v>
       </c>
       <c r="N64" s="42" t="s">
         <v>64</v>
@@ -6067,34 +5963,34 @@
         <v>10000000</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F65" s="42">
         <v>20</v>
       </c>
       <c r="G65" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="42">
-        <v>-2.231080179554421E-7</v>
+        <v>0.99999866530618742</v>
       </c>
       <c r="I65" s="42">
-        <v>9.1652434399653769E-7</v>
+        <v>1.065423223615718E-5</v>
       </c>
       <c r="J65" s="42">
-        <v>-7.1000345332782564E-8</v>
+        <v>-5.4923730617626944E-7</v>
       </c>
       <c r="K65" s="42">
-        <v>9.1055606767222927E-7</v>
+        <v>1.769267262190784E-6</v>
       </c>
       <c r="L65" s="42">
-        <v>20.56802957637986</v>
+        <v>20.483279693783839</v>
       </c>
       <c r="M65" s="42">
-        <v>107.9994706080209</v>
+        <v>108.0063751941386</v>
       </c>
       <c r="N65" s="42" t="s">
         <v>64</v>
@@ -6123,34 +6019,34 @@
         <v>10000000</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F66" s="42">
         <v>20</v>
       </c>
       <c r="G66" s="42">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="H66" s="42">
-        <v>-10.00002185654624</v>
+        <v>1.368440872449583E-7</v>
       </c>
       <c r="I66" s="42">
-        <v>1.020294024796482E-4</v>
+        <v>7.9141281867660523E-7</v>
       </c>
       <c r="J66" s="42">
-        <v>1.0000002630139899</v>
+        <v>1.2887184826873221E-7</v>
       </c>
       <c r="K66" s="42">
-        <v>1.042839523377521E-5</v>
+        <v>1.195967093536109E-6</v>
       </c>
       <c r="L66" s="42">
-        <v>20.667390910289491</v>
+        <v>20.547149068885609</v>
       </c>
       <c r="M66" s="42">
-        <v>107.9892742646004</v>
+        <v>108.00795049079061</v>
       </c>
       <c r="N66" s="42" t="s">
         <v>64</v>
@@ -6182,31 +6078,31 @@
         <v>62</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F67" s="42">
         <v>20</v>
       </c>
       <c r="G67" s="42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H67" s="42">
-        <v>10.00002445846477</v>
+        <v>-2.231080179554421E-7</v>
       </c>
       <c r="I67" s="42">
-        <v>1.038073553014757E-4</v>
+        <v>9.1652434399653769E-7</v>
       </c>
       <c r="J67" s="42">
-        <v>-1.0000016969210741</v>
+        <v>-7.1000345332782564E-8</v>
       </c>
       <c r="K67" s="42">
-        <v>1.291755544239828E-5</v>
+        <v>9.1055606767222927E-7</v>
       </c>
       <c r="L67" s="42">
-        <v>20.61625005268829</v>
+        <v>20.56802957637986</v>
       </c>
       <c r="M67" s="42">
-        <v>108.02754481667201</v>
+        <v>107.9994706080209</v>
       </c>
       <c r="N67" s="42" t="s">
         <v>64</v>
@@ -6238,31 +6134,31 @@
         <v>62</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F68" s="42">
         <v>20</v>
       </c>
       <c r="G68" s="42">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H68" s="42">
-        <v>7.8263282877592342E-8</v>
+        <v>-10.00002185654624</v>
       </c>
       <c r="I68" s="42">
-        <v>9.6847749438324071E-7</v>
+        <v>1.020294024796482E-4</v>
       </c>
       <c r="J68" s="42">
-        <v>5.0454902356203246E-7</v>
+        <v>1.0000002630139899</v>
       </c>
       <c r="K68" s="42">
-        <v>7.3371960451695662E-7</v>
+        <v>1.042839523377521E-5</v>
       </c>
       <c r="L68" s="42">
-        <v>20.737059337043721</v>
+        <v>20.667390910289491</v>
       </c>
       <c r="M68" s="42">
-        <v>108.0035577910669</v>
+        <v>107.9892742646004</v>
       </c>
       <c r="N68" s="42" t="s">
         <v>64</v>
@@ -6291,34 +6187,34 @@
         <v>10000000</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F69" s="42">
         <v>20</v>
       </c>
       <c r="G69" s="42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H69" s="42">
-        <v>-1.252397540317582E-8</v>
+        <v>10.00002445846477</v>
       </c>
       <c r="I69" s="42">
-        <v>1.0814580927887251E-6</v>
+        <v>1.038073553014757E-4</v>
       </c>
       <c r="J69" s="42">
-        <v>4.4235771280743362E-8</v>
+        <v>-1.0000016969210741</v>
       </c>
       <c r="K69" s="42">
-        <v>1.050471117362541E-6</v>
+        <v>1.291755544239828E-5</v>
       </c>
       <c r="L69" s="42">
-        <v>20.79034154899734</v>
+        <v>20.61625005268829</v>
       </c>
       <c r="M69" s="42">
-        <v>108.00509893987611</v>
+        <v>108.02754481667201</v>
       </c>
       <c r="N69" s="42" t="s">
         <v>64</v>
@@ -6347,34 +6243,34 @@
         <v>10000000</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F70" s="42">
         <v>20</v>
       </c>
       <c r="G70" s="42">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="H70" s="42">
-        <v>-10.000008394823</v>
+        <v>7.8263282877592342E-8</v>
       </c>
       <c r="I70" s="42">
-        <v>1.032306410477313E-4</v>
+        <v>9.6847749438324071E-7</v>
       </c>
       <c r="J70" s="42">
-        <v>3.7850573156504889E-6</v>
+        <v>5.0454902356203246E-7</v>
       </c>
       <c r="K70" s="42">
-        <v>1.144909367316122E-5</v>
+        <v>7.3371960451695662E-7</v>
       </c>
       <c r="L70" s="42">
-        <v>20.67338594692006</v>
+        <v>20.737059337043721</v>
       </c>
       <c r="M70" s="42">
-        <v>108.0121980051719</v>
+        <v>108.0035577910669</v>
       </c>
       <c r="N70" s="42" t="s">
         <v>64</v>
@@ -6406,31 +6302,31 @@
         <v>77</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F71" s="42">
         <v>20</v>
       </c>
       <c r="G71" s="42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H71" s="42">
-        <v>9.9999970890213579</v>
+        <v>-1.252397540317582E-8</v>
       </c>
       <c r="I71" s="42">
-        <v>1.332366099744941E-4</v>
+        <v>1.0814580927887251E-6</v>
       </c>
       <c r="J71" s="42">
-        <v>-2.8196096354298438E-6</v>
+        <v>4.4235771280743362E-8</v>
       </c>
       <c r="K71" s="42">
-        <v>1.193618690547882E-5</v>
+        <v>1.050471117362541E-6</v>
       </c>
       <c r="L71" s="42">
-        <v>20.2470599243719</v>
+        <v>20.79034154899734</v>
       </c>
       <c r="M71" s="42">
-        <v>107.994715078377</v>
+        <v>108.00509893987611</v>
       </c>
       <c r="N71" s="42" t="s">
         <v>64</v>
@@ -6462,31 +6358,31 @@
         <v>77</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F72" s="42">
         <v>20</v>
       </c>
       <c r="G72" s="42">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H72" s="42">
-        <v>-3.6521992892610022E-8</v>
+        <v>-10.000008394823</v>
       </c>
       <c r="I72" s="42">
-        <v>9.1205977498331018E-7</v>
+        <v>1.032306410477313E-4</v>
       </c>
       <c r="J72" s="42">
-        <v>7.2209246987649033E-8</v>
+        <v>3.7850573156504889E-6</v>
       </c>
       <c r="K72" s="42">
-        <v>1.009103663857629E-6</v>
+        <v>1.144909367316122E-5</v>
       </c>
       <c r="L72" s="42">
-        <v>20.394440816923229</v>
+        <v>20.67338594692006</v>
       </c>
       <c r="M72" s="42">
-        <v>107.9963973142941</v>
+        <v>108.0121980051719</v>
       </c>
       <c r="N72" s="42" t="s">
         <v>64</v>
@@ -6504,9 +6400,121 @@
         <v>0</v>
       </c>
     </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="42">
+        <v>100000000</v>
+      </c>
+      <c r="C73" s="42">
+        <v>10000000</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" s="42">
+        <v>20</v>
+      </c>
+      <c r="G73" s="42">
+        <v>10</v>
+      </c>
+      <c r="H73" s="42">
+        <v>9.9999970890213579</v>
+      </c>
+      <c r="I73" s="42">
+        <v>1.332366099744941E-4</v>
+      </c>
+      <c r="J73" s="42">
+        <v>-2.8196096354298438E-6</v>
+      </c>
+      <c r="K73" s="42">
+        <v>1.193618690547882E-5</v>
+      </c>
+      <c r="L73" s="42">
+        <v>20.2470599243719</v>
+      </c>
+      <c r="M73" s="42">
+        <v>107.994715078377</v>
+      </c>
+      <c r="N73" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="O73" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="42">
+        <v>0</v>
+      </c>
+      <c r="R73" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="42">
+        <v>100000000</v>
+      </c>
+      <c r="C74" s="42">
+        <v>10000000</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74" s="42">
+        <v>20</v>
+      </c>
+      <c r="G74" s="42">
+        <v>0</v>
+      </c>
+      <c r="H74" s="42">
+        <v>-3.6521992892610022E-8</v>
+      </c>
+      <c r="I74" s="42">
+        <v>9.1205977498331018E-7</v>
+      </c>
+      <c r="J74" s="42">
+        <v>7.2209246987649033E-8</v>
+      </c>
+      <c r="K74" s="42">
+        <v>1.009103663857629E-6</v>
+      </c>
+      <c r="L74" s="42">
+        <v>20.394440816923229</v>
+      </c>
+      <c r="M74" s="42">
+        <v>107.9963973142941</v>
+      </c>
+      <c r="N74" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="O74" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="P74" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="42">
+        <v>0</v>
+      </c>
+      <c r="R74" s="42">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6514,7 +6522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="540" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
@@ -8693,13 +8701,13 @@
       <c r="J67" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="K67" s="30">
+      <c r="K67" s="27">
         <v>1.000001000001</v>
       </c>
-      <c r="L67" s="31">
+      <c r="L67" s="28">
         <v>1.4142163908044624E-6</v>
       </c>
-      <c r="M67" s="32">
+      <c r="M67" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N67" s="9" t="s">
@@ -8734,13 +8742,13 @@
       <c r="J68" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="K68" s="27">
+      <c r="K68" s="30">
         <v>1.000001000001</v>
       </c>
-      <c r="L68" s="28">
+      <c r="L68" s="31">
         <v>1.414216390804462E-6</v>
       </c>
-      <c r="M68" s="29">
+      <c r="M68" s="32">
         <v>120.87512900978579</v>
       </c>
       <c r="N68" s="14" t="s">
@@ -8775,13 +8783,13 @@
       <c r="J69" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K69" s="30">
+      <c r="K69" s="27">
         <v>1.0000013000016901</v>
       </c>
-      <c r="L69" s="31">
+      <c r="L69" s="28">
         <v>9.1924120556809292E-7</v>
       </c>
-      <c r="M69" s="32">
+      <c r="M69" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N69" s="9" t="s">
@@ -8816,13 +8824,13 @@
       <c r="J70" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="K70" s="30">
+      <c r="K70" s="27">
         <v>1.00000120000144</v>
       </c>
-      <c r="L70" s="31">
+      <c r="L70" s="28">
         <v>7.0710847824587696E-7</v>
       </c>
-      <c r="M70" s="32">
+      <c r="M70" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N70" s="9" t="s">
@@ -8848,13 +8856,13 @@
       <c r="J71" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="K71" s="30">
+      <c r="K71" s="27">
         <v>1.000001050001103</v>
       </c>
-      <c r="L71" s="31">
+      <c r="L71" s="28">
         <v>8.1317450603009567E-7</v>
       </c>
-      <c r="M71" s="32">
+      <c r="M71" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N71" s="9" t="s">
@@ -8884,13 +8892,13 @@
       <c r="J72" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="K72" s="30">
+      <c r="K72" s="27">
         <v>1.00000120000144</v>
       </c>
-      <c r="L72" s="31">
+      <c r="L72" s="28">
         <v>3.5355423912293848E-7</v>
       </c>
-      <c r="M72" s="32">
+      <c r="M72" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N72" s="9" t="s">
@@ -8925,13 +8933,13 @@
       <c r="J73" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="K73" s="30">
+      <c r="K73" s="27">
         <v>1.0000011500013219</v>
       </c>
-      <c r="L73" s="31">
+      <c r="L73" s="28">
         <v>2.4748794263723231E-7</v>
       </c>
-      <c r="M73" s="32">
+      <c r="M73" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N73" s="9" t="s">
@@ -8966,13 +8974,13 @@
       <c r="J74" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="K74" s="27">
+      <c r="K74" s="30">
         <v>1.000001000001</v>
       </c>
-      <c r="L74" s="28">
+      <c r="L74" s="31">
         <v>8.4852983448267751E-7</v>
       </c>
-      <c r="M74" s="29">
+      <c r="M74" s="32">
         <v>120.87512900978579</v>
       </c>
       <c r="N74" s="14" t="s">
@@ -9007,13 +9015,13 @@
       <c r="J75" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="K75" s="30">
+      <c r="K75" s="27">
         <v>1.00000070000049</v>
       </c>
-      <c r="L75" s="31">
+      <c r="L75" s="28">
         <v>7.0710777113708063E-7</v>
       </c>
-      <c r="M75" s="32">
+      <c r="M75" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N75" s="9" t="s">
@@ -9054,7 +9062,7 @@
       <c r="L76" s="34">
         <v>2.9000000000000002E-8</v>
       </c>
-      <c r="M76" s="32">
+      <c r="M76" s="29">
         <v>18</v>
       </c>
       <c r="N76" s="9" t="s">
@@ -9086,7 +9094,7 @@
       <c r="L77" s="34">
         <v>2.9000000000000002E-8</v>
       </c>
-      <c r="M77" s="32">
+      <c r="M77" s="29">
         <v>18</v>
       </c>
       <c r="N77" s="9" t="s">
@@ -9245,13 +9253,13 @@
       <c r="J86" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="K86" s="30">
+      <c r="K86" s="27">
         <v>1</v>
       </c>
-      <c r="L86" s="31">
+      <c r="L86" s="28">
         <v>1.4142135623730949E-6</v>
       </c>
-      <c r="M86" s="32">
+      <c r="M86" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N86" s="9" t="s">
@@ -9265,13 +9273,13 @@
       <c r="J87" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="K87" s="27">
+      <c r="K87" s="30">
         <v>1</v>
       </c>
-      <c r="L87" s="28">
+      <c r="L87" s="31">
         <v>1.4142135623730949E-6</v>
       </c>
-      <c r="M87" s="29">
+      <c r="M87" s="32">
         <v>120.87512900978579</v>
       </c>
       <c r="N87" s="14" t="s">
@@ -9288,13 +9296,13 @@
       <c r="J88" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K88" s="30">
+      <c r="K88" s="27">
         <v>1.0000001000000101</v>
       </c>
-      <c r="L88" s="31">
+      <c r="L88" s="28">
         <v>9.1923899939030255E-7</v>
       </c>
-      <c r="M88" s="32">
+      <c r="M88" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N88" s="9" t="s">
@@ -9311,13 +9319,13 @@
       <c r="J89" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="K89" s="30">
+      <c r="K89" s="27">
         <v>1</v>
       </c>
-      <c r="L89" s="31">
+      <c r="L89" s="28">
         <v>7.0710678118654747E-7</v>
       </c>
-      <c r="M89" s="32">
+      <c r="M89" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N89" s="9" t="s">
@@ -9334,13 +9342,13 @@
       <c r="J90" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="K90" s="30">
+      <c r="K90" s="27">
         <v>1.0000000500000019</v>
       </c>
-      <c r="L90" s="31">
+      <c r="L90" s="28">
         <v>8.1317287968181555E-7</v>
       </c>
-      <c r="M90" s="32">
+      <c r="M90" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N90" s="9" t="s">
@@ -9357,13 +9365,13 @@
       <c r="J91" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="K91" s="30">
+      <c r="K91" s="27">
         <v>1.0000002000000401</v>
       </c>
-      <c r="L91" s="31">
+      <c r="L91" s="28">
         <v>3.535535320146725E-7</v>
       </c>
-      <c r="M91" s="32">
+      <c r="M91" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N91" s="9" t="s">
@@ -9380,13 +9388,13 @@
       <c r="J92" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="K92" s="30">
+      <c r="K92" s="27">
         <v>1.0000002000000401</v>
       </c>
-      <c r="L92" s="31">
+      <c r="L92" s="28">
         <v>2.4748747241027072E-7</v>
       </c>
-      <c r="M92" s="32">
+      <c r="M92" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N92" s="9" t="s">
@@ -9403,13 +9411,13 @@
       <c r="J93" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="K93" s="27">
+      <c r="K93" s="30">
         <v>0.99999970000008986</v>
       </c>
-      <c r="L93" s="28">
+      <c r="L93" s="31">
         <v>8.4852762830720346E-7</v>
       </c>
-      <c r="M93" s="29">
+      <c r="M93" s="32">
         <v>120.87512900978579</v>
       </c>
       <c r="N93" s="14" t="s">
@@ -9426,13 +9434,13 @@
       <c r="J94" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="K94" s="30">
+      <c r="K94" s="27">
         <v>0.99999960000015997</v>
       </c>
-      <c r="L94" s="31">
+      <c r="L94" s="28">
         <v>7.07106215501462E-7</v>
       </c>
-      <c r="M94" s="32">
+      <c r="M94" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N94" s="9" t="s">
@@ -9455,7 +9463,7 @@
       <c r="L95" s="34">
         <v>2E-8</v>
       </c>
-      <c r="M95" s="32">
+      <c r="M95" s="29">
         <v>18</v>
       </c>
       <c r="N95" s="9" t="s">
@@ -9478,7 +9486,7 @@
       <c r="L96" s="34">
         <v>2E-8</v>
       </c>
-      <c r="M96" s="32">
+      <c r="M96" s="29">
         <v>18</v>
       </c>
       <c r="N96" s="9" t="s">
@@ -9623,13 +9631,13 @@
       <c r="J105" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="K105" s="30">
+      <c r="K105" s="27">
         <v>1.00000250000625</v>
       </c>
-      <c r="L105" s="31">
+      <c r="L105" s="28">
         <v>1.4142206334674234E-6</v>
       </c>
-      <c r="M105" s="32">
+      <c r="M105" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N105" s="21" t="s">
@@ -9646,13 +9654,13 @@
       <c r="J106" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="K106" s="27">
+      <c r="K106" s="30">
         <v>1.00000250000625</v>
       </c>
-      <c r="L106" s="28">
+      <c r="L106" s="31">
         <v>1.414220633467423E-6</v>
       </c>
-      <c r="M106" s="29">
+      <c r="M106" s="32">
         <v>120.87512900978579</v>
       </c>
       <c r="N106" s="14" t="s">
@@ -9669,13 +9677,13 @@
       <c r="J107" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K107" s="30">
+      <c r="K107" s="27">
         <v>1.0000031000096099</v>
       </c>
-      <c r="L107" s="31">
+      <c r="L107" s="28">
         <v>9.1924451484967022E-7</v>
       </c>
-      <c r="M107" s="32">
+      <c r="M107" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N107" s="9" t="s">
@@ -9692,13 +9700,13 @@
       <c r="J108" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="K108" s="30">
+      <c r="K108" s="27">
         <v>1.000003050009302</v>
       </c>
-      <c r="L108" s="31">
+      <c r="L108" s="28">
         <v>7.0711109455764635E-7</v>
       </c>
-      <c r="M108" s="32">
+      <c r="M108" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N108" s="9" t="s">
@@ -9715,13 +9723,13 @@
       <c r="J109" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="K109" s="30">
+      <c r="K109" s="27">
         <v>1.000003250010562</v>
       </c>
-      <c r="L109" s="31">
+      <c r="L109" s="28">
         <v>8.1317808401348648E-7</v>
       </c>
-      <c r="M109" s="32">
+      <c r="M109" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N109" s="9" t="s">
@@ -9738,13 +9746,13 @@
       <c r="J110" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="K110" s="30">
+      <c r="K110" s="27">
         <v>1.0000034000115601</v>
       </c>
-      <c r="L110" s="31">
+      <c r="L110" s="28">
         <v>3.5355579476859112E-7</v>
       </c>
-      <c r="M110" s="32">
+      <c r="M110" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N110" s="9" t="s">
@@ -9761,13 +9769,13 @@
       <c r="J111" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="K111" s="30">
+      <c r="K111" s="27">
         <v>1.0000033000108901</v>
       </c>
-      <c r="L111" s="31">
+      <c r="L111" s="28">
         <v>2.4748900684004159E-7</v>
       </c>
-      <c r="M111" s="32">
+      <c r="M111" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N111" s="9" t="s">
@@ -9784,13 +9792,13 @@
       <c r="J112" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="K112" s="27">
+      <c r="K112" s="30">
         <v>1.0000029000084101</v>
       </c>
-      <c r="L112" s="28">
+      <c r="L112" s="31">
         <v>8.4853305890846271E-7</v>
       </c>
-      <c r="M112" s="29">
+      <c r="M112" s="32">
         <v>120.87512900978579</v>
       </c>
       <c r="N112" s="14" t="s">
@@ -9807,13 +9815,13 @@
       <c r="J113" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="K113" s="30">
+      <c r="K113" s="27">
         <v>1.000002750007563</v>
       </c>
-      <c r="L113" s="31">
+      <c r="L113" s="28">
         <v>7.0711067028988679E-7</v>
       </c>
-      <c r="M113" s="32">
+      <c r="M113" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N113" s="9" t="s">
@@ -9836,7 +9844,7 @@
       <c r="L114" s="34">
         <v>2E-8</v>
       </c>
-      <c r="M114" s="32">
+      <c r="M114" s="29">
         <v>18</v>
       </c>
       <c r="N114" s="9" t="s">
@@ -9859,7 +9867,7 @@
       <c r="L115" s="34">
         <v>2E-8</v>
       </c>
-      <c r="M115" s="32">
+      <c r="M115" s="29">
         <v>18</v>
       </c>
       <c r="N115" s="9" t="s">
@@ -10004,13 +10012,13 @@
       <c r="J124" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="K124" s="30">
+      <c r="K124" s="27">
         <v>1.00000250000625</v>
       </c>
-      <c r="L124" s="31">
+      <c r="L124" s="28">
         <v>1.4142206334674234E-6</v>
       </c>
-      <c r="M124" s="32">
+      <c r="M124" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N124" s="9" t="s">
@@ -10030,10 +10038,10 @@
       <c r="K125" s="37">
         <v>1</v>
       </c>
-      <c r="L125" s="28">
+      <c r="L125" s="31">
         <v>1.4142135623730949E-6</v>
       </c>
-      <c r="M125" s="29">
+      <c r="M125" s="32">
         <v>120.87512900978579</v>
       </c>
       <c r="N125" s="14" t="s">
@@ -10050,13 +10058,13 @@
       <c r="J126" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K126" s="30">
+      <c r="K126" s="27">
         <v>1.00000150000225</v>
       </c>
-      <c r="L126" s="31">
+      <c r="L126" s="28">
         <v>9.1924157326516319E-7</v>
       </c>
-      <c r="M126" s="32">
+      <c r="M126" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N126" s="9" t="s">
@@ -10073,13 +10081,13 @@
       <c r="J127" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="K127" s="30">
+      <c r="K127" s="27">
         <v>1.00000160000256</v>
       </c>
-      <c r="L127" s="31">
+      <c r="L127" s="28">
         <v>7.0710904393367791E-7</v>
       </c>
-      <c r="M127" s="32">
+      <c r="M127" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N127" s="9" t="s">
@@ -10096,13 +10104,13 @@
       <c r="J128" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="K128" s="30">
+      <c r="K128" s="27">
         <v>1.000001550002402</v>
       </c>
-      <c r="L128" s="31">
+      <c r="L128" s="28">
         <v>8.1317531920606548E-7</v>
       </c>
-      <c r="M128" s="32">
+      <c r="M128" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N128" s="9" t="s">
@@ -10119,13 +10127,13 @@
       <c r="J129" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="K129" s="30">
+      <c r="K129" s="27">
         <v>1.00000170000289</v>
       </c>
-      <c r="L129" s="31">
+      <c r="L129" s="28">
         <v>3.5355459267786709E-7</v>
       </c>
-      <c r="M129" s="32">
+      <c r="M129" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N129" s="9" t="s">
@@ -10142,13 +10150,13 @@
       <c r="J130" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="K130" s="30">
+      <c r="K130" s="27">
         <v>1.000001850003422</v>
       </c>
-      <c r="L130" s="31">
+      <c r="L130" s="28">
         <v>2.4748828912111432E-7</v>
       </c>
-      <c r="M130" s="32">
+      <c r="M130" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N130" s="9" t="s">
@@ -10165,13 +10173,13 @@
       <c r="J131" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="K131" s="27">
+      <c r="K131" s="30">
         <v>1.00000180000324</v>
       </c>
-      <c r="L131" s="28">
+      <c r="L131" s="31">
         <v>8.4853119213339951E-7</v>
       </c>
-      <c r="M131" s="29">
+      <c r="M131" s="32">
         <v>120.87512900978579</v>
       </c>
       <c r="N131" s="14" t="s">
@@ -10188,13 +10196,13 @@
       <c r="J132" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="K132" s="30">
+      <c r="K132" s="27">
         <v>1.000001750003062</v>
       </c>
-      <c r="L132" s="31">
+      <c r="L132" s="28">
         <v>7.0710925606677826E-7</v>
       </c>
-      <c r="M132" s="32">
+      <c r="M132" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N132" s="9" t="s">
@@ -10217,7 +10225,7 @@
       <c r="L133" s="34">
         <v>1.9000000000000001E-8</v>
       </c>
-      <c r="M133" s="32">
+      <c r="M133" s="29">
         <v>18</v>
       </c>
       <c r="N133" s="9" t="s">
@@ -10240,7 +10248,7 @@
       <c r="L134" s="34">
         <v>1.9000000000000001E-8</v>
       </c>
-      <c r="M134" s="32">
+      <c r="M134" s="29">
         <v>18</v>
       </c>
       <c r="N134" s="9" t="s">
@@ -10385,13 +10393,13 @@
       <c r="J143" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="K143" s="30">
+      <c r="K143" s="27">
         <v>1</v>
       </c>
-      <c r="L143" s="31">
+      <c r="L143" s="28">
         <v>1.4142135623730949E-6</v>
       </c>
-      <c r="M143" s="32">
+      <c r="M143" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N143" s="9" t="s">
@@ -10411,10 +10419,10 @@
       <c r="K144" s="37">
         <v>1</v>
       </c>
-      <c r="L144" s="28">
+      <c r="L144" s="31">
         <v>1.4142135623730949E-6</v>
       </c>
-      <c r="M144" s="29">
+      <c r="M144" s="32">
         <v>120.87512900978579</v>
       </c>
       <c r="N144" s="14" t="s">
@@ -10431,13 +10439,13 @@
       <c r="J145" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K145" s="30">
+      <c r="K145" s="27">
         <v>1.00000150000225</v>
       </c>
-      <c r="L145" s="31">
+      <c r="L145" s="28">
         <v>9.1924157326516319E-7</v>
       </c>
-      <c r="M145" s="32">
+      <c r="M145" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N145" s="9" t="s">
@@ -10454,13 +10462,13 @@
       <c r="J146" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="K146" s="30">
+      <c r="K146" s="27">
         <v>1.00000160000256</v>
       </c>
-      <c r="L146" s="31">
+      <c r="L146" s="28">
         <v>7.0710904393367791E-7</v>
       </c>
-      <c r="M146" s="32">
+      <c r="M146" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N146" s="9" t="s">
@@ -10477,13 +10485,13 @@
       <c r="J147" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="K147" s="30">
+      <c r="K147" s="27">
         <v>1.000009650093123</v>
       </c>
-      <c r="L147" s="31">
+      <c r="L147" s="28">
         <v>8.1318849282671504E-7</v>
       </c>
-      <c r="M147" s="32">
+      <c r="M147" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N147" s="9" t="s">
@@ -10500,13 +10508,13 @@
       <c r="J148" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="K148" s="30">
+      <c r="K148" s="27">
         <v>1.00000170000289</v>
       </c>
-      <c r="L148" s="31">
+      <c r="L148" s="28">
         <v>3.5355459267786709E-7</v>
       </c>
-      <c r="M148" s="32">
+      <c r="M148" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N148" s="9" t="s">
@@ -10523,13 +10531,13 @@
       <c r="J149" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="K149" s="30">
+      <c r="K149" s="27">
         <v>1.000001850003422</v>
       </c>
-      <c r="L149" s="31">
+      <c r="L149" s="28">
         <v>2.4748828912111432E-7</v>
       </c>
-      <c r="M149" s="32">
+      <c r="M149" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N149" s="9" t="s">
@@ -10546,13 +10554,13 @@
       <c r="J150" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="K150" s="27">
+      <c r="K150" s="30">
         <v>1.00000180000324</v>
       </c>
-      <c r="L150" s="28">
+      <c r="L150" s="31">
         <v>8.4853119213339951E-7</v>
       </c>
-      <c r="M150" s="29">
+      <c r="M150" s="32">
         <v>120.87512900978579</v>
       </c>
       <c r="N150" s="14" t="s">
@@ -10569,13 +10577,13 @@
       <c r="J151" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="K151" s="30">
+      <c r="K151" s="27">
         <v>1.000001750003062</v>
       </c>
-      <c r="L151" s="31">
+      <c r="L151" s="28">
         <v>7.0710925606677826E-7</v>
       </c>
-      <c r="M151" s="32">
+      <c r="M151" s="29">
         <v>120.87512900978579</v>
       </c>
       <c r="N151" s="9" t="s">
@@ -10598,7 +10606,7 @@
       <c r="L152" s="34">
         <v>1.7E-8</v>
       </c>
-      <c r="M152" s="32">
+      <c r="M152" s="29">
         <v>18</v>
       </c>
       <c r="N152" s="9" t="s">
@@ -10621,7 +10629,7 @@
       <c r="L153" s="34">
         <v>1.7E-8</v>
       </c>
-      <c r="M153" s="32">
+      <c r="M153" s="29">
         <v>18</v>
       </c>
       <c r="N153" s="9" t="s">

--- a/IVY_template.xlsx
+++ b/IVY_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="12150" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Comments" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,13 @@
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Results" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="542">
   <si>
     <t>WARNING: DO NOT INSERT ANY COMMENTS IN THIS WORKBOOK!</t>
   </si>
@@ -963,9 +964,6 @@
     <t>Auto100M_R0_LV &lt;source?&gt;</t>
   </si>
   <si>
-    <t>Vgain_01r01</t>
-  </si>
-  <si>
     <t>3458A_066_Vgain_01r01</t>
   </si>
   <si>
@@ -1254,12 +1252,6 @@
     <t>Vgain_calcs.xlsx, S21926</t>
   </si>
   <si>
-    <t>3458A_518_Vgain_05r10</t>
-  </si>
-  <si>
-    <t>3458A_518_Vgain_05r1</t>
-  </si>
-  <si>
     <t>3458A_518_Vgain_1r1</t>
   </si>
   <si>
@@ -1588,6 +1580,75 @@
   </si>
   <si>
     <t>Test_DUC</t>
+  </si>
+  <si>
+    <t>Vgain_0.5r10</t>
+  </si>
+  <si>
+    <t>Vgain_0.5r1</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_0.0001r01</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_0.01r01</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_0.05r01</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_0.5r10</t>
+  </si>
+  <si>
+    <t>3458A_518_Vgain_0.5r1</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_0.0001r01</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_0.01r01</t>
+  </si>
+  <si>
+    <t>3458A_452_Vgain_0.05r01</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_0.0001r01</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_0.01r01</t>
+  </si>
+  <si>
+    <t>3458A_066_Vgain_0.05r01</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_0.0001r01</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_0.01r01</t>
+  </si>
+  <si>
+    <t>3458A_129_Vgain_0.05r01</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_0.0001r01</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_0.01r01</t>
+  </si>
+  <si>
+    <t>3458A_230_Vgain_0.05r01</t>
+  </si>
+  <si>
+    <t>Vgain_0.0001r0.1</t>
+  </si>
+  <si>
+    <t>Vgain_0.01r0.1</t>
+  </si>
+  <si>
+    <t>Vgain_0.05r0.1</t>
+  </si>
+  <si>
+    <t>Vgain_0.1r0.1</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -2135,6 +2196,10 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2825,8 +2890,8 @@
     <col min="33" max="33" width="11.85546875" style="42" customWidth="1"/>
     <col min="34" max="34" width="11.42578125" style="42" customWidth="1"/>
     <col min="35" max="35" width="26.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="36" max="110" width="11.42578125" style="42" customWidth="1"/>
-    <col min="111" max="16384" width="11.42578125" style="42"/>
+    <col min="36" max="111" width="11.42578125" style="42" customWidth="1"/>
+    <col min="112" max="16384" width="11.42578125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6766,12 +6831,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U175"/>
+  <dimension ref="A1:U190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="540" topLeftCell="A110" activePane="bottomLeft"/>
+      <pane ySplit="540" topLeftCell="A147" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="N124" sqref="N124"/>
+      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6789,13 +6854,13 @@
     <col min="11" max="11" width="29.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="6" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="27.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="74" style="6" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="0" style="6" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="87" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="73" width="11.42578125" style="6" customWidth="1"/>
-    <col min="74" max="16384" width="11.42578125" style="6"/>
+    <col min="22" max="74" width="11.42578125" style="6" customWidth="1"/>
+    <col min="75" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8987,22 +9052,22 @@
         <v>306</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="K67" s="26">
-        <v>1.000001000001</v>
-      </c>
-      <c r="L67" s="27">
-        <v>1.414216390804462E-6</v>
-      </c>
-      <c r="M67" s="28">
+        <v>538</v>
+      </c>
+      <c r="K67" s="77">
+        <v>0.99980003999200162</v>
+      </c>
+      <c r="L67" s="78">
+        <v>8.8353002913033095E-4</v>
+      </c>
+      <c r="M67" s="79">
         <v>120.87512900978579</v>
       </c>
-      <c r="N67" s="6" t="s">
+      <c r="N67" s="76" t="s">
+        <v>529</v>
+      </c>
+      <c r="O67" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="O67" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -9022,28 +9087,28 @@
         <v>8</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="J68" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="K68" s="29">
-        <v>1.000001000001</v>
-      </c>
-      <c r="L68" s="30">
-        <v>1.414216390804462E-6</v>
-      </c>
-      <c r="M68" s="31">
+      <c r="J68" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="K68" s="77">
+        <v>1.0000015000022502</v>
+      </c>
+      <c r="L68" s="78">
+        <v>9.5459701839074676E-6</v>
+      </c>
+      <c r="M68" s="79">
         <v>120.87512900978579</v>
       </c>
-      <c r="N68" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="O68" s="11" t="s">
-        <v>308</v>
+      <c r="N68" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -9063,28 +9128,28 @@
         <v>8</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="J69" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="K69" s="26">
-        <v>1.0000013000016901</v>
-      </c>
-      <c r="L69" s="27">
-        <v>9.1924120556809292E-7</v>
-      </c>
-      <c r="M69" s="28">
+      <c r="J69" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="K69" s="77">
+        <v>1.0000006000003601</v>
+      </c>
+      <c r="L69" s="78">
+        <v>2.4041659410325254E-6</v>
+      </c>
+      <c r="M69" s="79">
         <v>120.87512900978579</v>
       </c>
-      <c r="N69" s="6" t="s">
-        <v>321</v>
+      <c r="N69" s="76" t="s">
+        <v>531</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -9104,28 +9169,28 @@
         <v>8</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="J70" s="6" t="s">
-        <v>323</v>
+      <c r="J70" s="19" t="s">
+        <v>541</v>
       </c>
       <c r="K70" s="26">
-        <v>1.00000120000144</v>
+        <v>1.000001000001</v>
       </c>
       <c r="L70" s="27">
-        <v>7.0710847824587696E-7</v>
+        <v>1.414216390804462E-6</v>
       </c>
       <c r="M70" s="28">
         <v>120.87512900978579</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -9144,22 +9209,22 @@
         <v>306</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="K71" s="26">
-        <v>1.000001050001103</v>
-      </c>
-      <c r="L71" s="27">
-        <v>8.1317450603009567E-7</v>
-      </c>
-      <c r="M71" s="28">
+        <v>316</v>
+      </c>
+      <c r="K71" s="29">
+        <v>1.000001000001</v>
+      </c>
+      <c r="L71" s="30">
+        <v>1.414216390804462E-6</v>
+      </c>
+      <c r="M71" s="31">
         <v>120.87512900978579</v>
       </c>
-      <c r="N71" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="O71" s="6" t="s">
-        <v>315</v>
+      <c r="N71" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="O71" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -9180,27 +9245,27 @@
         <v>306</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K72" s="26">
-        <v>1.00000120000144</v>
+        <v>1.0000013000016901</v>
       </c>
       <c r="L72" s="27">
-        <v>3.5355423912293848E-7</v>
+        <v>9.1924120556809292E-7</v>
       </c>
       <c r="M72" s="28">
         <v>120.87512900978579</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>161</v>
@@ -9215,33 +9280,33 @@
         <v>8</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>306</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K73" s="26">
-        <v>1.0000011500013219</v>
+        <v>1.00000120000144</v>
       </c>
       <c r="L73" s="27">
-        <v>2.4748794263723231E-7</v>
+        <v>7.0710847824587696E-7</v>
       </c>
       <c r="M73" s="28">
         <v>120.87512900978579</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>169</v>
@@ -9256,33 +9321,33 @@
         <v>8</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>306</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K74" s="29">
-        <v>1.000001000001</v>
-      </c>
-      <c r="L74" s="30">
-        <v>8.4852983448267751E-7</v>
-      </c>
-      <c r="M74" s="31">
+        <v>324</v>
+      </c>
+      <c r="K74" s="26">
+        <v>1.000001050001103</v>
+      </c>
+      <c r="L74" s="27">
+        <v>8.1317450603009567E-7</v>
+      </c>
+      <c r="M74" s="28">
         <v>120.87512900978579</v>
       </c>
-      <c r="N74" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="O74" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N74" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>174</v>
@@ -9297,33 +9362,33 @@
         <v>8</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>306</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="K75" s="26">
-        <v>1.00000070000049</v>
+        <v>1.00000120000144</v>
       </c>
       <c r="L75" s="27">
-        <v>7.0710777113708063E-7</v>
+        <v>3.5355423912293848E-7</v>
       </c>
       <c r="M75" s="28">
         <v>120.87512900978579</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>179</v>
@@ -9338,33 +9403,33 @@
         <v>8</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>306</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="K76" s="32">
-        <v>0</v>
-      </c>
-      <c r="L76" s="33">
-        <v>2.9000000000000002E-8</v>
+        <v>330</v>
+      </c>
+      <c r="K76" s="26">
+        <v>1.0000011500013219</v>
+      </c>
+      <c r="L76" s="27">
+        <v>2.4748794263723231E-7</v>
       </c>
       <c r="M76" s="28">
-        <v>18</v>
+        <v>120.87512900978579</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>184</v>
@@ -9376,27 +9441,27 @@
         <v>306</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="K77" s="32">
-        <v>0</v>
-      </c>
-      <c r="L77" s="33">
-        <v>2.9000000000000002E-8</v>
-      </c>
-      <c r="M77" s="28">
-        <v>18</v>
-      </c>
-      <c r="N77" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="O77" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="K77" s="29">
+        <v>1.000001000001</v>
+      </c>
+      <c r="L77" s="30">
+        <v>8.4852983448267751E-7</v>
+      </c>
+      <c r="M77" s="31">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="O77" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>188</v>
@@ -9412,32 +9477,68 @@
         <v>306</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K78" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="K78" s="26">
+        <v>1.00000070000049</v>
+      </c>
+      <c r="L78" s="27">
+        <v>7.0710777113708063E-7</v>
+      </c>
+      <c r="M78" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I79" s="6" t="s">
         <v>306</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="K79" s="32">
+        <v>0</v>
+      </c>
+      <c r="L79" s="33">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="M79" s="28">
+        <v>18</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I80" s="6" t="s">
         <v>306</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
+      </c>
+      <c r="K80" s="32">
+        <v>0</v>
+      </c>
+      <c r="L80" s="33">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="M80" s="28">
+        <v>18</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="9:16" x14ac:dyDescent="0.25">
@@ -9445,135 +9546,102 @@
         <v>306</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>347</v>
+        <v>181</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I82" s="34" t="s">
+      <c r="I82" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="J82" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="K82" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="34"/>
-      <c r="O82" s="34"/>
+      <c r="J82" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="83" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I83" s="6" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="K83" s="11">
-        <v>0</v>
-      </c>
-      <c r="L83" s="11">
-        <v>0</v>
-      </c>
-      <c r="M83" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N83" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="O83" s="11" t="s">
-        <v>308</v>
+        <v>289</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="P83" s="35"/>
     </row>
     <row r="84" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I84" s="6" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="K84" s="13">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L84" s="13">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M84" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N84" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="O84" s="11" t="s">
-        <v>308</v>
+        <v>189</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I85" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="K85" s="13">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L85" s="13">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M85" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N85" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="O85" s="11" t="s">
-        <v>308</v>
-      </c>
+      <c r="I85" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="J85" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K85" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="34"/>
     </row>
     <row r="86" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I86" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K86" s="11">
+        <v>0</v>
+      </c>
+      <c r="L86" s="11">
+        <v>0</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N86" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="J86" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="K86" s="26">
-        <v>1</v>
-      </c>
-      <c r="L86" s="27">
-        <v>1.4142135623730949E-6</v>
-      </c>
-      <c r="M86" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N86" s="6" t="s">
-        <v>353</v>
+      <c r="O86" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I87" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="K87" s="29">
-        <v>1</v>
-      </c>
-      <c r="L87" s="30">
-        <v>1.4142135623730949E-6</v>
-      </c>
-      <c r="M87" s="31">
-        <v>120.87512900978579</v>
+        <v>265</v>
+      </c>
+      <c r="K87" s="13">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L87" s="13">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="N87" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O87" s="11" t="s">
         <v>308</v>
@@ -9581,993 +9649,1017 @@
     </row>
     <row r="88" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I88" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="K88" s="26">
-        <v>1.0000001000000101</v>
-      </c>
-      <c r="L88" s="27">
-        <v>9.1923899939030255E-7</v>
-      </c>
-      <c r="M88" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N88" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="O88" s="6" t="s">
-        <v>356</v>
+        <v>267</v>
+      </c>
+      <c r="K88" s="13">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L88" s="13">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="O88" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I89" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="K89" s="26">
-        <v>1</v>
-      </c>
-      <c r="L89" s="27">
-        <v>7.0710678118654747E-7</v>
-      </c>
-      <c r="M89" s="28">
+        <v>348</v>
+      </c>
+      <c r="J89" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="K89" s="77">
+        <v>1.994614540740002</v>
+      </c>
+      <c r="L89" s="78">
+        <v>3.657179830245758E-3</v>
+      </c>
+      <c r="M89" s="79">
         <v>120.87512900978579</v>
       </c>
-      <c r="N89" s="6" t="s">
-        <v>357</v>
+      <c r="N89" s="76" t="s">
+        <v>532</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I90" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="K90" s="26">
-        <v>1.0000000500000019</v>
-      </c>
-      <c r="L90" s="27">
-        <v>8.1317287968181555E-7</v>
-      </c>
-      <c r="M90" s="28">
+        <v>348</v>
+      </c>
+      <c r="J90" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="K90" s="77">
+        <v>0.99999950000025006</v>
+      </c>
+      <c r="L90" s="78">
+        <v>9.5459320000840074E-6</v>
+      </c>
+      <c r="M90" s="79">
         <v>120.87512900978579</v>
       </c>
-      <c r="N90" s="6" t="s">
-        <v>358</v>
+      <c r="N90" s="76" t="s">
+        <v>533</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I91" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="K91" s="26">
-        <v>1.0000002000000401</v>
-      </c>
-      <c r="L91" s="27">
-        <v>3.535535320146725E-7</v>
-      </c>
-      <c r="M91" s="28">
+        <v>348</v>
+      </c>
+      <c r="J91" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="K91" s="77">
+        <v>1.0000001000000101</v>
+      </c>
+      <c r="L91" s="78">
+        <v>2.4041635368669451E-6</v>
+      </c>
+      <c r="M91" s="79">
         <v>120.87512900978579</v>
       </c>
-      <c r="N91" s="6" t="s">
-        <v>359</v>
+      <c r="N91" s="76" t="s">
+        <v>534</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="92" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I92" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>331</v>
+        <v>348</v>
+      </c>
+      <c r="J92" s="19" t="s">
+        <v>541</v>
       </c>
       <c r="K92" s="26">
-        <v>1.0000002000000401</v>
+        <v>1</v>
       </c>
       <c r="L92" s="27">
-        <v>2.4748747241027072E-7</v>
+        <v>1.4142135623730949E-6</v>
       </c>
       <c r="M92" s="28">
         <v>120.87512900978579</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I93" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="K93" s="29">
-        <v>0.99999970000008986</v>
+        <v>1</v>
       </c>
       <c r="L93" s="30">
-        <v>8.4852762830720346E-7</v>
+        <v>1.4142135623730949E-6</v>
       </c>
       <c r="M93" s="31">
         <v>120.87512900978579</v>
       </c>
       <c r="N93" s="11" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="O93" s="11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="9:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I94" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="K94" s="26">
-        <v>0.99999960000015997</v>
+        <v>1.0000001000000101</v>
       </c>
       <c r="L94" s="27">
-        <v>7.07106215501462E-7</v>
+        <v>9.1923899939030255E-7</v>
       </c>
       <c r="M94" s="28">
         <v>120.87512900978579</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="O94" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="95" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="K95" s="26">
+        <v>1</v>
+      </c>
+      <c r="L95" s="27">
+        <v>7.0710678118654747E-7</v>
+      </c>
+      <c r="M95" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N95" s="6" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="95" spans="9:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I95" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="K95" s="32">
-        <v>0</v>
-      </c>
-      <c r="L95" s="33">
-        <v>2E-8</v>
-      </c>
-      <c r="M95" s="28">
-        <v>18</v>
-      </c>
-      <c r="N95" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="O95" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="96" spans="9:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="96" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I96" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="K96" s="32">
-        <v>0</v>
-      </c>
-      <c r="L96" s="33">
-        <v>2E-8</v>
+        <v>324</v>
+      </c>
+      <c r="K96" s="26">
+        <v>1.0000000500000019</v>
+      </c>
+      <c r="L96" s="27">
+        <v>8.1317287968181555E-7</v>
       </c>
       <c r="M96" s="28">
-        <v>18</v>
+        <v>120.87512900978579</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I97" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K97" s="11">
-        <v>25</v>
+        <v>326</v>
+      </c>
+      <c r="K97" s="26">
+        <v>1.0000002000000401</v>
+      </c>
+      <c r="L97" s="27">
+        <v>3.535535320146725E-7</v>
+      </c>
+      <c r="M97" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="O97" s="6" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I98" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K98" s="11" t="s">
-        <v>366</v>
+        <v>330</v>
+      </c>
+      <c r="K98" s="26">
+        <v>1.0000002000000401</v>
+      </c>
+      <c r="L98" s="27">
+        <v>2.4748747241027072E-7</v>
+      </c>
+      <c r="M98" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I99" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="100" spans="9:15" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="K99" s="29">
+        <v>0.99999970000008986</v>
+      </c>
+      <c r="L99" s="30">
+        <v>8.4852762830720346E-7</v>
+      </c>
+      <c r="M99" s="31">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="O99" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I100" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="101" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I101" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="J101" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="K101" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="K100" s="26">
+        <v>0.99999960000015997</v>
+      </c>
+      <c r="L100" s="27">
+        <v>7.07106215501462E-7</v>
+      </c>
+      <c r="M100" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I101" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="L101" s="34"/>
-      <c r="M101" s="34"/>
-      <c r="N101" s="34"/>
-      <c r="O101" s="34"/>
-    </row>
-    <row r="102" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J101" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="K101" s="32">
+        <v>0</v>
+      </c>
+      <c r="L101" s="33">
+        <v>2E-8</v>
+      </c>
+      <c r="M101" s="28">
+        <v>18</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="102" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I102" s="6" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="K102" s="11">
-        <v>0</v>
-      </c>
-      <c r="L102" s="11">
-        <v>0</v>
-      </c>
-      <c r="M102" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N102" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="O102" s="11" t="s">
-        <v>308</v>
+        <v>342</v>
+      </c>
+      <c r="K102" s="32">
+        <v>0</v>
+      </c>
+      <c r="L102" s="33">
+        <v>2E-8</v>
+      </c>
+      <c r="M102" s="28">
+        <v>18</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I103" s="6" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="K103" s="13">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L103" s="13">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M103" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N103" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="O103" s="11" t="s">
-        <v>308</v>
+        <v>181</v>
+      </c>
+      <c r="K103" s="11">
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I104" s="6" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="K104" s="13">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L104" s="13">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M104" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N104" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="O104" s="11" t="s">
-        <v>308</v>
+        <v>185</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I105" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="J105" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="K105" s="26">
-        <v>1.00000250000625</v>
-      </c>
-      <c r="L105" s="27">
-        <v>1.414220633467423E-6</v>
-      </c>
-      <c r="M105" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N105" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="O105" s="6" t="s">
-        <v>373</v>
+        <v>348</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I106" s="6" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="K106" s="29">
-        <v>1.00000250000625</v>
-      </c>
-      <c r="L106" s="30">
-        <v>1.414220633467423E-6</v>
-      </c>
-      <c r="M106" s="31">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N106" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="O106" s="11" t="s">
-        <v>308</v>
+        <v>189</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="107" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I107" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="J107" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="K107" s="26">
-        <v>1.0000031000096099</v>
-      </c>
-      <c r="L107" s="27">
-        <v>9.1924451484967022E-7</v>
-      </c>
-      <c r="M107" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N107" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="O107" s="6" t="s">
-        <v>373</v>
-      </c>
+      <c r="I107" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="J107" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K107" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="L107" s="34"/>
+      <c r="M107" s="34"/>
+      <c r="N107" s="34"/>
+      <c r="O107" s="34"/>
     </row>
     <row r="108" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I108" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K108" s="11">
+        <v>0</v>
+      </c>
+      <c r="L108" s="11">
+        <v>0</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N108" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="J108" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="K108" s="26">
-        <v>1.000003050009302</v>
-      </c>
-      <c r="L108" s="27">
-        <v>7.0711109455764635E-7</v>
-      </c>
-      <c r="M108" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N108" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="O108" s="6" t="s">
-        <v>373</v>
+      <c r="O108" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I109" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="K109" s="26">
-        <v>1.000003250010562</v>
-      </c>
-      <c r="L109" s="27">
-        <v>8.1317808401348648E-7</v>
-      </c>
-      <c r="M109" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N109" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="O109" s="6" t="s">
-        <v>373</v>
+        <v>265</v>
+      </c>
+      <c r="K109" s="13">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L109" s="13">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M109" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="O109" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I110" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="K110" s="26">
-        <v>1.0000034000115601</v>
-      </c>
-      <c r="L110" s="27">
-        <v>3.5355579476859112E-7</v>
-      </c>
-      <c r="M110" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N110" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="O110" s="6" t="s">
-        <v>373</v>
+        <v>267</v>
+      </c>
+      <c r="K110" s="13">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L110" s="13">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="O110" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I111" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="K111" s="26">
-        <v>1.0000033000108901</v>
-      </c>
-      <c r="L111" s="27">
-        <v>2.4748900684004159E-7</v>
-      </c>
-      <c r="M111" s="28">
+        <v>367</v>
+      </c>
+      <c r="J111" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="K111" s="77">
+        <v>1.0001000100010002</v>
+      </c>
+      <c r="L111" s="78">
+        <v>8.8406027969852139E-4</v>
+      </c>
+      <c r="M111" s="79">
         <v>120.87512900978579</v>
       </c>
-      <c r="N111" s="6" t="s">
-        <v>379</v>
+      <c r="N111" s="76" t="s">
+        <v>535</v>
       </c>
       <c r="O111" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I112" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K112" s="29">
-        <v>1.0000029000084101</v>
-      </c>
-      <c r="L112" s="30">
-        <v>8.4853305890846271E-7</v>
-      </c>
-      <c r="M112" s="31">
+        <v>367</v>
+      </c>
+      <c r="J112" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="K112" s="77">
+        <v>1.0000030000090001</v>
+      </c>
+      <c r="L112" s="78">
+        <v>9.5459988219254093E-6</v>
+      </c>
+      <c r="M112" s="79">
         <v>120.87512900978579</v>
       </c>
-      <c r="N112" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="O112" s="11" t="s">
+      <c r="N112" s="76" t="s">
+        <v>536</v>
+      </c>
+      <c r="O112" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="113" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I113" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J113" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="K113" s="77">
+        <v>1.0000031000096101</v>
+      </c>
+      <c r="L113" s="78">
+        <v>2.4041779619145213E-6</v>
+      </c>
+      <c r="M113" s="79">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N113" s="76" t="s">
+        <v>537</v>
+      </c>
+      <c r="O113" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="114" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I114" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J114" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="K114" s="26">
+        <v>1.00000250000625</v>
+      </c>
+      <c r="L114" s="27">
+        <v>1.414220633467423E-6</v>
+      </c>
+      <c r="M114" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N114" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="O114" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="K115" s="29">
+        <v>1.00000250000625</v>
+      </c>
+      <c r="L115" s="30">
+        <v>1.414220633467423E-6</v>
+      </c>
+      <c r="M115" s="31">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="O115" s="11" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="113" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I113" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="J113" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K113" s="26">
-        <v>1.000002750007563</v>
-      </c>
-      <c r="L113" s="27">
-        <v>7.0711067028988679E-7</v>
-      </c>
-      <c r="M113" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N113" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="O113" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="114" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I114" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="K114" s="32">
-        <v>0</v>
-      </c>
-      <c r="L114" s="33">
-        <v>2E-8</v>
-      </c>
-      <c r="M114" s="28">
-        <v>18</v>
-      </c>
-      <c r="N114" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="O114" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="115" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I115" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="J115" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="K115" s="32">
-        <v>0</v>
-      </c>
-      <c r="L115" s="33">
-        <v>2E-8</v>
-      </c>
-      <c r="M115" s="28">
-        <v>18</v>
-      </c>
-      <c r="N115" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="O115" s="6" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="116" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I116" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K116" s="11">
-        <v>22</v>
+        <v>319</v>
+      </c>
+      <c r="K116" s="26">
+        <v>1.0000031000096099</v>
+      </c>
+      <c r="L116" s="27">
+        <v>9.1924451484967022E-7</v>
+      </c>
+      <c r="M116" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="O116" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="117" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I117" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K117" s="11" t="s">
-        <v>385</v>
+        <v>322</v>
+      </c>
+      <c r="K117" s="26">
+        <v>1.000003050009302</v>
+      </c>
+      <c r="L117" s="27">
+        <v>7.0711109455764635E-7</v>
+      </c>
+      <c r="M117" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="O117" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="118" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I118" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="K118" s="6" t="s">
-        <v>346</v>
+        <v>324</v>
+      </c>
+      <c r="K118" s="26">
+        <v>1.000003250010562</v>
+      </c>
+      <c r="L118" s="27">
+        <v>8.1317808401348648E-7</v>
+      </c>
+      <c r="M118" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="O118" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I119" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K119" s="6" t="s">
-        <v>386</v>
+        <v>326</v>
+      </c>
+      <c r="K119" s="26">
+        <v>1.0000034000115601</v>
+      </c>
+      <c r="L119" s="27">
+        <v>3.5355579476859112E-7</v>
+      </c>
+      <c r="M119" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N119" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="O119" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="120" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I120" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="J120" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="K120" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="L120" s="34"/>
-      <c r="M120" s="34"/>
-      <c r="N120" s="34"/>
-      <c r="O120" s="34"/>
+      <c r="I120" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="K120" s="26">
+        <v>1.0000033000108901</v>
+      </c>
+      <c r="L120" s="27">
+        <v>2.4748900684004159E-7</v>
+      </c>
+      <c r="M120" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="O120" s="6" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="121" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I121" s="6" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="K121" s="11">
-        <v>0</v>
-      </c>
-      <c r="L121" s="11">
-        <v>0</v>
-      </c>
-      <c r="M121" s="11" t="s">
-        <v>165</v>
+        <v>333</v>
+      </c>
+      <c r="K121" s="29">
+        <v>1.0000029000084101</v>
+      </c>
+      <c r="L121" s="30">
+        <v>8.4853305890846271E-7</v>
+      </c>
+      <c r="M121" s="31">
+        <v>120.87512900978579</v>
       </c>
       <c r="N121" s="11" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="O121" s="11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="122" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I122" s="6" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="K122" s="13">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L122" s="13">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M122" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N122" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="O122" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="123" spans="9:15" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="K122" s="26">
+        <v>1.000002750007563</v>
+      </c>
+      <c r="L122" s="27">
+        <v>7.0711067028988679E-7</v>
+      </c>
+      <c r="M122" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="O122" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="123" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I123" s="6" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="K123" s="13">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L123" s="13">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M123" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N123" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="O123" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="124" spans="9:15" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="K123" s="32">
+        <v>0</v>
+      </c>
+      <c r="L123" s="33">
+        <v>2E-8</v>
+      </c>
+      <c r="M123" s="28">
+        <v>18</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="O123" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="124" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I124" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J124" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="K124" s="26">
-        <v>1.00000250000625</v>
-      </c>
-      <c r="L124" s="27">
-        <v>1.414220633467423E-6</v>
+        <v>367</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="K124" s="32">
+        <v>0</v>
+      </c>
+      <c r="L124" s="33">
+        <v>2E-8</v>
       </c>
       <c r="M124" s="28">
-        <v>120.87512900978579</v>
+        <v>18</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="O124" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I125" s="6" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="K125" s="36">
-        <v>1</v>
-      </c>
-      <c r="L125" s="30">
-        <v>1.4142135623730949E-6</v>
-      </c>
-      <c r="M125" s="31">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N125" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="O125" s="11" t="s">
-        <v>308</v>
+        <v>181</v>
+      </c>
+      <c r="K125" s="11">
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I126" s="6" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="K126" s="26">
-        <v>1.00000150000225</v>
-      </c>
-      <c r="L126" s="27">
-        <v>9.1924157326516319E-7</v>
-      </c>
-      <c r="M126" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N126" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="O126" s="6" t="s">
-        <v>391</v>
+        <v>185</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="127" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I127" s="6" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="K127" s="26">
-        <v>1.00000160000256</v>
-      </c>
-      <c r="L127" s="27">
-        <v>7.0710904393367791E-7</v>
-      </c>
-      <c r="M127" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N127" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="O127" s="6" t="s">
-        <v>391</v>
+        <v>289</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I128" s="6" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="K128" s="26">
-        <v>1.000001550002402</v>
-      </c>
-      <c r="L128" s="27">
-        <v>8.1317531920606548E-7</v>
-      </c>
-      <c r="M128" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N128" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="O128" s="6" t="s">
-        <v>391</v>
+        <v>189</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="129" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I129" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J129" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="K129" s="26">
-        <v>1.00000170000289</v>
-      </c>
-      <c r="L129" s="27">
-        <v>3.5355459267786709E-7</v>
-      </c>
-      <c r="M129" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N129" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="O129" s="6" t="s">
-        <v>391</v>
-      </c>
+      <c r="I129" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="J129" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K129" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="L129" s="34"/>
+      <c r="M129" s="34"/>
+      <c r="N129" s="34"/>
+      <c r="O129" s="34"/>
     </row>
     <row r="130" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I130" s="6" t="s">
         <v>88</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="K130" s="26">
-        <v>1.000001850003422</v>
-      </c>
-      <c r="L130" s="27">
-        <v>2.4748828912111432E-7</v>
-      </c>
-      <c r="M130" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N130" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="O130" s="6" t="s">
-        <v>391</v>
+        <v>262</v>
+      </c>
+      <c r="K130" s="11">
+        <v>0</v>
+      </c>
+      <c r="L130" s="11">
+        <v>0</v>
+      </c>
+      <c r="M130" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="O130" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="131" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I131" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K131" s="29">
-        <v>1.00000180000324</v>
-      </c>
-      <c r="L131" s="30">
-        <v>8.4853119213339951E-7</v>
-      </c>
-      <c r="M131" s="31">
-        <v>120.87512900978579</v>
+        <v>265</v>
+      </c>
+      <c r="K131" s="13">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L131" s="13">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M131" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="N131" s="11" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="O131" s="11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I132" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K132" s="26">
-        <v>1.000001750003062</v>
-      </c>
-      <c r="L132" s="27">
-        <v>7.0710925606677826E-7</v>
-      </c>
-      <c r="M132" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N132" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="O132" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="133" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="K132" s="13">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L132" s="13">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M132" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N132" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="O132" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="133" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I133" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J133" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="K133" s="32">
-        <v>0</v>
-      </c>
-      <c r="L133" s="33">
-        <v>1.9000000000000001E-8</v>
-      </c>
-      <c r="M133" s="28">
-        <v>18</v>
-      </c>
-      <c r="N133" s="6" t="s">
-        <v>400</v>
+      <c r="J133" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="K133" s="77">
+        <v>1.0002000400080016</v>
+      </c>
+      <c r="L133" s="78">
+        <v>8.8423713596808603E-4</v>
+      </c>
+      <c r="M133" s="79">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N133" s="76" t="s">
+        <v>526</v>
       </c>
       <c r="O133" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="134" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="134" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I134" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J134" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="K134" s="32">
-        <v>0</v>
-      </c>
-      <c r="L134" s="33">
-        <v>1.9000000000000001E-8</v>
-      </c>
-      <c r="M134" s="28">
-        <v>18</v>
-      </c>
-      <c r="N134" s="6" t="s">
-        <v>402</v>
+      <c r="J134" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="K134" s="77">
+        <v>1.00000250000625</v>
+      </c>
+      <c r="L134" s="78">
+        <v>9.5459892759051088E-6</v>
+      </c>
+      <c r="M134" s="79">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N134" s="76" t="s">
+        <v>527</v>
       </c>
       <c r="O134" s="6" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I135" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J135" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K135" s="6">
-        <v>23</v>
+      <c r="J135" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="K135" s="77">
+        <v>1.00000250000625</v>
+      </c>
+      <c r="L135" s="78">
+        <v>2.4041750768946197E-6</v>
+      </c>
+      <c r="M135" s="79">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N135" s="76" t="s">
+        <v>528</v>
+      </c>
+      <c r="O135" s="6" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I136" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J136" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K136" s="6" t="s">
-        <v>403</v>
+      <c r="J136" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="K136" s="26">
+        <v>1.00000250000625</v>
+      </c>
+      <c r="L136" s="27">
+        <v>1.414220633467423E-6</v>
+      </c>
+      <c r="M136" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="O136" s="6" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.25">
@@ -10575,10 +10667,22 @@
         <v>88</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="K137" s="6" t="s">
-        <v>346</v>
+        <v>316</v>
+      </c>
+      <c r="K137" s="36">
+        <v>1</v>
+      </c>
+      <c r="L137" s="30">
+        <v>1.4142135623730949E-6</v>
+      </c>
+      <c r="M137" s="31">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="O137" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.25">
@@ -10586,347 +10690,311 @@
         <v>88</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K138" s="6" t="s">
-        <v>404</v>
+        <v>319</v>
+      </c>
+      <c r="K138" s="26">
+        <v>1.00000150000225</v>
+      </c>
+      <c r="L138" s="27">
+        <v>9.1924157326516319E-7</v>
+      </c>
+      <c r="M138" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N138" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="O138" s="6" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I139" s="34" t="s">
+      <c r="I139" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J139" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="K139" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="L139" s="34"/>
-      <c r="M139" s="34"/>
-      <c r="N139" s="34"/>
-      <c r="O139" s="34"/>
+      <c r="J139" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="K139" s="26">
+        <v>1.00000160000256</v>
+      </c>
+      <c r="L139" s="27">
+        <v>7.0710904393367791E-7</v>
+      </c>
+      <c r="M139" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="O139" s="6" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I140" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="K140" s="11">
-        <v>0</v>
-      </c>
-      <c r="L140" s="11">
-        <v>0</v>
-      </c>
-      <c r="M140" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N140" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="O140" s="11" t="s">
-        <v>308</v>
+        <v>324</v>
+      </c>
+      <c r="K140" s="26">
+        <v>1.000001550002402</v>
+      </c>
+      <c r="L140" s="27">
+        <v>8.1317531920606548E-7</v>
+      </c>
+      <c r="M140" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N140" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I141" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="K141" s="13">
-        <v>-5.6799999999999998E-5</v>
-      </c>
-      <c r="L141" s="13">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="M141" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N141" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="O141" s="11" t="s">
-        <v>308</v>
+        <v>326</v>
+      </c>
+      <c r="K141" s="26">
+        <v>1.00000170000289</v>
+      </c>
+      <c r="L141" s="27">
+        <v>3.5355459267786709E-7</v>
+      </c>
+      <c r="M141" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N141" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="O141" s="6" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="142" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I142" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="K142" s="13">
-        <v>-5.63E-5</v>
-      </c>
-      <c r="L142" s="13">
-        <v>5.9999999999999997E-7</v>
-      </c>
-      <c r="M142" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="N142" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="O142" s="11" t="s">
-        <v>308</v>
+        <v>330</v>
+      </c>
+      <c r="K142" s="26">
+        <v>1.000001850003422</v>
+      </c>
+      <c r="L142" s="27">
+        <v>2.4748828912111432E-7</v>
+      </c>
+      <c r="M142" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N142" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="O142" s="6" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="143" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I143" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J143" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="K143" s="26">
-        <v>1</v>
-      </c>
-      <c r="L143" s="27">
-        <v>1.4142135623730949E-6</v>
-      </c>
-      <c r="M143" s="28">
+      <c r="J143" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="K143" s="29">
+        <v>1.00000180000324</v>
+      </c>
+      <c r="L143" s="30">
+        <v>8.4853119213339951E-7</v>
+      </c>
+      <c r="M143" s="31">
         <v>120.87512900978579</v>
       </c>
-      <c r="N143" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="O143" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="144" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N143" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="O143" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="144" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I144" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J144" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="K144" s="36">
-        <v>1</v>
-      </c>
-      <c r="L144" s="30">
-        <v>1.4142135623730949E-6</v>
-      </c>
-      <c r="M144" s="31">
+      <c r="J144" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="K144" s="26">
+        <v>1.000001750003062</v>
+      </c>
+      <c r="L144" s="27">
+        <v>7.0710925606677826E-7</v>
+      </c>
+      <c r="M144" s="28">
         <v>120.87512900978579</v>
       </c>
-      <c r="N144" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="O144" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="145" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="N144" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="O144" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="145" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I145" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="K145" s="26">
-        <v>1.00000150000225</v>
-      </c>
-      <c r="L145" s="27">
-        <v>9.1924157326516319E-7</v>
+        <v>339</v>
+      </c>
+      <c r="K145" s="32">
+        <v>0</v>
+      </c>
+      <c r="L145" s="33">
+        <v>1.9000000000000001E-8</v>
       </c>
       <c r="M145" s="28">
-        <v>120.87512900978579</v>
+        <v>18</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="O145" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="146" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="146" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I146" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="K146" s="26">
-        <v>1.00000160000256</v>
-      </c>
-      <c r="L146" s="27">
-        <v>7.0710904393367791E-7</v>
+        <v>342</v>
+      </c>
+      <c r="K146" s="32">
+        <v>0</v>
+      </c>
+      <c r="L146" s="33">
+        <v>1.9000000000000001E-8</v>
       </c>
       <c r="M146" s="28">
-        <v>120.87512900978579</v>
+        <v>18</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="O146" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="147" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I147" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="K147" s="26">
-        <v>1.000009650093123</v>
-      </c>
-      <c r="L147" s="27">
-        <v>8.1318849282671504E-7</v>
-      </c>
-      <c r="M147" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N147" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="O147" s="6" t="s">
-        <v>409</v>
+        <v>181</v>
+      </c>
+      <c r="K147" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I148" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="K148" s="26">
-        <v>1.00000170000289</v>
-      </c>
-      <c r="L148" s="27">
-        <v>3.5355459267786709E-7</v>
-      </c>
-      <c r="M148" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N148" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="O148" s="6" t="s">
-        <v>409</v>
+        <v>185</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="149" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I149" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="K149" s="26">
-        <v>1.000001850003422</v>
-      </c>
-      <c r="L149" s="27">
-        <v>2.4748828912111432E-7</v>
-      </c>
-      <c r="M149" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N149" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="O149" s="6" t="s">
-        <v>409</v>
+        <v>289</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="150" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I150" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J150" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="K150" s="29">
-        <v>1.00000180000324</v>
-      </c>
-      <c r="L150" s="30">
-        <v>8.4853119213339951E-7</v>
-      </c>
-      <c r="M150" s="31">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N150" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="O150" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="151" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I151" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K151" s="26">
-        <v>1.000001750003062</v>
-      </c>
-      <c r="L151" s="27">
-        <v>7.0710925606677826E-7</v>
-      </c>
-      <c r="M151" s="28">
-        <v>120.87512900978579</v>
-      </c>
-      <c r="N151" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="O151" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="152" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="151" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I151" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="J151" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K151" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="L151" s="34"/>
+      <c r="M151" s="34"/>
+      <c r="N151" s="34"/>
+      <c r="O151" s="34"/>
+    </row>
+    <row r="152" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I152" s="6" t="s">
         <v>85</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="K152" s="32">
-        <v>0</v>
-      </c>
-      <c r="L152" s="33">
-        <v>1.7E-8</v>
-      </c>
-      <c r="M152" s="28">
-        <v>18</v>
-      </c>
-      <c r="N152" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="O152" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="153" spans="9:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="K152" s="11">
+        <v>0</v>
+      </c>
+      <c r="L152" s="11">
+        <v>0</v>
+      </c>
+      <c r="M152" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N152" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="O152" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" spans="9:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I153" s="6" t="s">
         <v>85</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="K153" s="32">
-        <v>0</v>
-      </c>
-      <c r="L153" s="33">
-        <v>1.7E-8</v>
-      </c>
-      <c r="M153" s="28">
-        <v>18</v>
-      </c>
-      <c r="N153" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="O153" s="6" t="s">
-        <v>419</v>
+        <v>265</v>
+      </c>
+      <c r="K153" s="13">
+        <v>-5.6799999999999998E-5</v>
+      </c>
+      <c r="L153" s="13">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="M153" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N153" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="O153" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="154" spans="9:15" x14ac:dyDescent="0.25">
@@ -10934,280 +11002,625 @@
         <v>85</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K154" s="6">
-        <v>24</v>
+        <v>267</v>
+      </c>
+      <c r="K154" s="13">
+        <v>-5.63E-5</v>
+      </c>
+      <c r="L154" s="13">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="M154" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N154" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="O154" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I155" s="6" t="s">
+      <c r="I155" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="J155" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K155" s="6" t="s">
-        <v>421</v>
+      <c r="J155" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="K155" s="26">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="L155" s="27">
+        <v>9.2400000000000002E-4</v>
+      </c>
+      <c r="M155" s="28">
+        <v>121</v>
+      </c>
+      <c r="N155" s="76" t="s">
+        <v>521</v>
+      </c>
+      <c r="O155" s="6" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="156" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I156" s="6" t="s">
+      <c r="I156" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="J156" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="K156" s="6" t="s">
-        <v>346</v>
+      <c r="J156" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="K156" s="26">
+        <v>0.99999950000000004</v>
+      </c>
+      <c r="L156" s="27">
+        <v>9.5000000000000005E-6</v>
+      </c>
+      <c r="M156" s="28">
+        <v>121</v>
+      </c>
+      <c r="N156" s="76" t="s">
+        <v>522</v>
+      </c>
+      <c r="O156" s="6" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="157" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I157" s="6" t="s">
+      <c r="I157" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="J157" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K157" s="6" t="s">
-        <v>422</v>
+      <c r="J157" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="K157" s="26">
+        <v>0.99999950000000004</v>
+      </c>
+      <c r="L157" s="27">
+        <v>2.3999999999999999E-6</v>
+      </c>
+      <c r="M157" s="28">
+        <v>121</v>
+      </c>
+      <c r="N157" s="76" t="s">
+        <v>523</v>
+      </c>
+      <c r="O157" s="6" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="158" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I158" s="34" t="s">
+      <c r="I158" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J158" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="K158" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="L158" s="34"/>
-      <c r="M158" s="34"/>
-      <c r="N158" s="34"/>
-      <c r="O158" s="34"/>
+      <c r="J158" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="K158" s="26">
+        <v>1</v>
+      </c>
+      <c r="L158" s="27">
+        <v>1.4142135623730949E-6</v>
+      </c>
+      <c r="M158" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N158" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="O158" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="159" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I159" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K159" s="6">
-        <v>2</v>
-      </c>
-      <c r="L159" s="11"/>
-      <c r="M159" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="J159" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="K159" s="36">
+        <v>1</v>
+      </c>
+      <c r="L159" s="30">
+        <v>1.4142135623730949E-6</v>
+      </c>
+      <c r="M159" s="31">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N159" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="O159" s="11" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="160" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I160" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J160" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K160" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="L160" s="13"/>
-      <c r="M160" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="J160" s="76" t="s">
+        <v>520</v>
+      </c>
+      <c r="K160" s="26">
+        <v>1.00000150000225</v>
+      </c>
+      <c r="L160" s="27">
+        <v>9.1924157326516319E-7</v>
+      </c>
+      <c r="M160" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N160" s="76" t="s">
+        <v>525</v>
+      </c>
+      <c r="O160" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="161" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I161" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="K161" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="L161" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="M161" s="38" t="s">
-        <v>427</v>
+        <v>322</v>
+      </c>
+      <c r="K161" s="26">
+        <v>1.00000160000256</v>
+      </c>
+      <c r="L161" s="27">
+        <v>7.0710904393367791E-7</v>
+      </c>
+      <c r="M161" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N161" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="O161" s="6" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="162" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I162" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="K162" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="L162" s="37" t="s">
-        <v>430</v>
-      </c>
-      <c r="M162" s="11"/>
+        <v>324</v>
+      </c>
+      <c r="K162" s="26">
+        <v>1.000009650093123</v>
+      </c>
+      <c r="L162" s="27">
+        <v>8.1318849282671504E-7</v>
+      </c>
+      <c r="M162" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N162" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="O162" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="163" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I163" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="K163" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="L163" s="13"/>
-      <c r="M163" s="11"/>
+        <v>326</v>
+      </c>
+      <c r="K163" s="26">
+        <v>1.00000170000289</v>
+      </c>
+      <c r="L163" s="27">
+        <v>3.5355459267786709E-7</v>
+      </c>
+      <c r="M163" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="O163" s="6" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="164" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I164" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="K164" s="6" t="s">
-        <v>434</v>
+        <v>330</v>
+      </c>
+      <c r="K164" s="26">
+        <v>1.000001850003422</v>
+      </c>
+      <c r="L164" s="27">
+        <v>2.4748828912111432E-7</v>
+      </c>
+      <c r="M164" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N164" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="O164" s="6" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="165" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I165" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J165" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K165" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="166" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I166" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="J166" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="K166" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="L166" s="34"/>
-      <c r="M166" s="34"/>
-      <c r="N166" s="34"/>
-      <c r="O166" s="34"/>
-    </row>
-    <row r="167" spans="9:15" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="J165" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="K165" s="29">
+        <v>1.00000180000324</v>
+      </c>
+      <c r="L165" s="30">
+        <v>8.4853119213339951E-7</v>
+      </c>
+      <c r="M165" s="31">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N165" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="O165" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="166" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I166" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="K166" s="26">
+        <v>1.000001750003062</v>
+      </c>
+      <c r="L166" s="27">
+        <v>7.0710925606677826E-7</v>
+      </c>
+      <c r="M166" s="28">
+        <v>120.87512900978579</v>
+      </c>
+      <c r="N166" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="O166" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="167" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I167" s="6" t="s">
-        <v>437</v>
+        <v>85</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K167" s="6">
-        <v>4</v>
-      </c>
-      <c r="L167" s="11"/>
-    </row>
-    <row r="168" spans="9:15" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="K167" s="32">
+        <v>0</v>
+      </c>
+      <c r="L167" s="33">
+        <v>1.7E-8</v>
+      </c>
+      <c r="M167" s="28">
+        <v>18</v>
+      </c>
+      <c r="N167" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O167" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="168" spans="9:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I168" s="6" t="s">
-        <v>437</v>
+        <v>85</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K168" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="L168" s="13"/>
+        <v>342</v>
+      </c>
+      <c r="K168" s="32">
+        <v>0</v>
+      </c>
+      <c r="L168" s="33">
+        <v>1.7E-8</v>
+      </c>
+      <c r="M168" s="28">
+        <v>18</v>
+      </c>
+      <c r="N168" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="O168" s="6" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="169" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I169" s="6" t="s">
-        <v>437</v>
+        <v>85</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="K169" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="L169" s="13"/>
+        <v>181</v>
+      </c>
+      <c r="K169" s="6">
+        <v>24</v>
+      </c>
     </row>
     <row r="170" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I170" s="6" t="s">
-        <v>437</v>
+        <v>85</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>428</v>
+        <v>185</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="L170" s="37" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="171" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I171" s="6" t="s">
-        <v>437</v>
+        <v>85</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>431</v>
+        <v>289</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="L171" s="13"/>
+        <v>345</v>
+      </c>
     </row>
     <row r="172" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I172" s="6" t="s">
-        <v>437</v>
+        <v>85</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>433</v>
+        <v>189</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="173" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I173" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="J173" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="K173" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="L173" s="6" t="s">
-        <v>446</v>
-      </c>
+      <c r="I173" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J173" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K173" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="L173" s="34"/>
+      <c r="M173" s="34"/>
+      <c r="N173" s="34"/>
+      <c r="O173" s="34"/>
     </row>
     <row r="174" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I174" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K174" s="6">
+        <v>2</v>
+      </c>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
+    </row>
+    <row r="175" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I175" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K175" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="L175" s="13"/>
+      <c r="M175" s="11"/>
+    </row>
+    <row r="176" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I176" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J176" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K176" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L176" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="M176" s="38" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="177" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I177" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J177" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="K177" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="L177" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="M177" s="11"/>
+    </row>
+    <row r="178" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I178" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J178" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="K178" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="L178" s="13"/>
+      <c r="M178" s="11"/>
+    </row>
+    <row r="179" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I179" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="180" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I180" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J180" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K180" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="181" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I181" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J181" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K181" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="L181" s="34"/>
+      <c r="M181" s="34"/>
+      <c r="N181" s="34"/>
+      <c r="O181" s="34"/>
+    </row>
+    <row r="182" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I182" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J182" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K182" s="6">
+        <v>4</v>
+      </c>
+      <c r="L182" s="11"/>
+    </row>
+    <row r="183" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I183" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K183" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="L183" s="13"/>
+    </row>
+    <row r="184" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I184" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J184" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K184" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="L184" s="13"/>
+    </row>
+    <row r="185" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I185" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="K185" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="J174" s="6" t="s">
+      <c r="L185" s="37" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="186" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I186" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="K186" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="L186" s="13"/>
+    </row>
+    <row r="187" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I187" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J187" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="K187" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="188" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I188" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="K188" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="L188" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="189" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I189" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J189" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K174" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="175" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I175" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="J175" s="34" t="s">
+      <c r="K189" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="190" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I190" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="J190" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="K175" s="34" t="s">
+      <c r="K190" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="L175" s="34"/>
-      <c r="M175" s="34"/>
-      <c r="N175" s="34"/>
-      <c r="O175" s="34"/>
+      <c r="L190" s="34"/>
+      <c r="M190" s="34"/>
+      <c r="N190" s="34"/>
+      <c r="O190" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11244,13 +11657,13 @@
     <col min="17" max="21" width="9.140625" style="72" customWidth="1"/>
     <col min="22" max="22" width="9.42578125" style="72" customWidth="1"/>
     <col min="23" max="28" width="9.28515625" style="72" customWidth="1"/>
-    <col min="29" max="63" width="11.42578125" style="72" customWidth="1"/>
-    <col min="64" max="16384" width="11.42578125" style="72"/>
+    <col min="29" max="64" width="11.42578125" style="72" customWidth="1"/>
+    <col min="65" max="16384" width="11.42578125" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B1" s="71">
         <v>511</v>
@@ -11258,7 +11671,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>63</v>
@@ -11266,7 +11679,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>43</v>
@@ -11274,33 +11687,33 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="72" t="s">
         <v>451</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="E5" s="72" t="s">
         <v>452</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="F5" s="72" t="s">
         <v>453</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>454</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>455</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D6" s="73">
         <v>20.550136807091882</v>
@@ -11314,13 +11727,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B7" s="72">
         <v>100000</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D7" s="73">
         <v>0.293916182704478</v>
@@ -11334,7 +11747,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="72" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D8" s="75">
         <v>2.6102961658784349</v>
@@ -11348,45 +11761,45 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H9" s="72" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D10" s="72" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="72" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>466</v>
+      </c>
+      <c r="I10" s="72" t="s">
         <v>467</v>
       </c>
-      <c r="F10" s="72" t="s">
-        <v>468</v>
-      </c>
-      <c r="H10" s="72" t="s">
-        <v>469</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>470</v>
-      </c>
       <c r="J10" s="72" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K10" s="72" t="s">
         <v>156</v>
       </c>
       <c r="L10" s="72" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M10" s="72" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -11409,7 +11822,7 @@
         <v>2.006924452431849</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I11" s="72">
         <v>0.1000001989083857</v>
@@ -11429,7 +11842,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H12" s="72" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I12" s="72">
         <v>-1.0000060211258319</v>
@@ -11449,7 +11862,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H13" s="72" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I13" s="72">
         <v>2.2379161260586329E-6</v>
@@ -11469,7 +11882,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H14" s="72" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I14" s="72">
         <v>1.177279267328127E-7</v>
@@ -11489,7 +11902,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H15" s="72" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I15" s="72">
         <v>1.6535424532024291E-7</v>
@@ -11509,7 +11922,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H16" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I16" s="72">
         <v>1</v>
@@ -11549,7 +11962,7 @@
     </row>
     <row r="18" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H18" s="72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I18" s="72">
         <v>1.00000160000256</v>
@@ -11569,7 +11982,7 @@
     </row>
     <row r="19" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H19" s="72" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I19" s="72">
         <v>4.9081735525558836E-7</v>
@@ -11589,7 +12002,7 @@
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H20" s="72" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I20" s="72">
         <v>2.3918806027091302E-7</v>
@@ -11609,7 +12022,7 @@
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H21" s="72" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I21" s="72">
         <v>5.8994792309264883E-7</v>
@@ -11629,7 +12042,7 @@
     </row>
     <row r="22" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H22" s="72" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I22" s="72">
         <v>9.4775663456321606E-8</v>
@@ -11649,7 +12062,7 @@
     </row>
     <row r="23" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H23" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I23" s="72">
         <v>0</v>
@@ -11809,7 +12222,7 @@
     </row>
     <row r="31" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H31" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I31" s="72">
         <v>108.0195970922902</v>
@@ -11829,7 +12242,7 @@
     </row>
     <row r="32" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H32" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I32" s="72">
         <v>108.0128468524121</v>
@@ -11849,7 +12262,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H33" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I33" s="72">
         <v>108.0075568063705</v>
@@ -11869,7 +12282,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H34" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I34" s="72">
         <v>108.00549122093599</v>
@@ -11889,7 +12302,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H35" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I35" s="72">
         <v>108.0000611474094</v>
@@ -11909,7 +12322,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H36" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I36" s="72">
         <v>107.9988402254814</v>
@@ -11929,7 +12342,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H37" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I37" s="72">
         <v>107.99016461161111</v>
@@ -11949,7 +12362,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H38" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I38" s="72">
         <v>107.98915273982431</v>
@@ -11969,7 +12382,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H39" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I39" s="72">
         <v>1.00000250000625</v>
@@ -12007,7 +12420,7 @@
         <v>1.995083182460595</v>
       </c>
       <c r="H41" s="72" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I41" s="72">
         <v>-9.9999439991386441E-2</v>
@@ -12027,7 +12440,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H42" s="72" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I42" s="72">
         <v>4.6912897761383359E-8</v>
@@ -12047,7 +12460,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H43" s="72" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I43" s="72">
         <v>0.99999809712941945</v>
@@ -12067,7 +12480,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H44" s="72" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I44" s="72">
         <v>1.177279267328127E-7</v>
@@ -12087,7 +12500,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H45" s="72" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I45" s="72">
         <v>1.6535424532024291E-7</v>
@@ -12107,7 +12520,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H46" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I46" s="72">
         <v>1</v>
@@ -12147,7 +12560,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H48" s="72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I48" s="72">
         <v>1.00000160000256</v>
@@ -12167,7 +12580,7 @@
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H49" s="72" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I49" s="72">
         <v>4.9081735525558836E-7</v>
@@ -12187,7 +12600,7 @@
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H50" s="72" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I50" s="72">
         <v>2.3918806027091302E-7</v>
@@ -12207,7 +12620,7 @@
     </row>
     <row r="51" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H51" s="72" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I51" s="72">
         <v>5.8994792309264883E-7</v>
@@ -12227,7 +12640,7 @@
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H52" s="72" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I52" s="72">
         <v>9.4775663456321606E-8</v>
@@ -12247,7 +12660,7 @@
     </row>
     <row r="53" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H53" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I53" s="72">
         <v>0</v>
@@ -12407,7 +12820,7 @@
     </row>
     <row r="61" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H61" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I61" s="72">
         <v>108.0195970922902</v>
@@ -12427,7 +12840,7 @@
     </row>
     <row r="62" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H62" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I62" s="72">
         <v>108.0128468524121</v>
@@ -12447,7 +12860,7 @@
     </row>
     <row r="63" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H63" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I63" s="72">
         <v>108.0075568063705</v>
@@ -12467,7 +12880,7 @@
     </row>
     <row r="64" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H64" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I64" s="72">
         <v>108.00549122093599</v>
@@ -12487,7 +12900,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H65" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I65" s="72">
         <v>108.0000611474094</v>
@@ -12507,7 +12920,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H66" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I66" s="72">
         <v>107.9988402254814</v>
@@ -12527,7 +12940,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H67" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I67" s="72">
         <v>107.99016461161111</v>
@@ -12547,7 +12960,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H68" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I68" s="72">
         <v>107.98915273982431</v>
@@ -12567,7 +12980,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H69" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I69" s="72">
         <v>1.00000250000625</v>
@@ -12605,7 +13018,7 @@
         <v>2.0025544318049229</v>
       </c>
       <c r="H71" s="72" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I71" s="72">
         <v>1.0788730309276109E-6</v>
@@ -12625,7 +13038,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H72" s="72" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I72" s="72">
         <v>0.99999928537714777</v>
@@ -12645,7 +13058,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H73" s="72" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I73" s="72">
         <v>-10.00002626818541</v>
@@ -12685,7 +13098,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H75" s="72" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I75" s="72">
         <v>1.00000160000256</v>
@@ -12705,7 +13118,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H76" s="72" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I76" s="72">
         <v>1.043230180901704E-7</v>
@@ -12725,7 +13138,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H77" s="72" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I77" s="72">
         <v>1.7908888342222789E-7</v>
@@ -12745,7 +13158,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H78" s="72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I78" s="72">
         <v>1.000001850003422</v>
@@ -12765,7 +13178,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H79" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I79" s="72">
         <v>0</v>
@@ -12785,7 +13198,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H80" s="72" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I80" s="72">
         <v>5.1191618520369837E-7</v>
@@ -12805,7 +13218,7 @@
     </row>
     <row r="81" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H81" s="72" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I81" s="72">
         <v>-9.5668684700356169E-8</v>
@@ -12845,7 +13258,7 @@
     </row>
     <row r="83" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H83" s="72" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I83" s="72">
         <v>-2.7182644622249209E-7</v>
@@ -12865,7 +13278,7 @@
     </row>
     <row r="84" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H84" s="72" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I84" s="72">
         <v>3.3608501923704182E-7</v>
@@ -13005,7 +13418,7 @@
     </row>
     <row r="91" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H91" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I91" s="72">
         <v>108.0215824351238</v>
@@ -13025,7 +13438,7 @@
     </row>
     <row r="92" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H92" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I92" s="72">
         <v>108.0203274158299</v>
@@ -13045,7 +13458,7 @@
     </row>
     <row r="93" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H93" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I93" s="72">
         <v>108.0121385278194</v>
@@ -13065,7 +13478,7 @@
     </row>
     <row r="94" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H94" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I94" s="72">
         <v>108.01138146764011</v>
@@ -13085,7 +13498,7 @@
     </row>
     <row r="95" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H95" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I95" s="72">
         <v>108.00459564532019</v>
@@ -13105,7 +13518,7 @@
     </row>
     <row r="96" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H96" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I96" s="72">
         <v>107.99147381796</v>
@@ -13125,7 +13538,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H97" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I97" s="72">
         <v>107.99143848154711</v>
@@ -13145,7 +13558,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H98" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I98" s="72">
         <v>107.9860953085427</v>
@@ -13165,7 +13578,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H99" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I99" s="72">
         <v>1.00000250000625</v>
@@ -13185,7 +13598,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H100" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I100" s="72">
         <v>1</v>
@@ -13223,7 +13636,7 @@
         <v>2.0023125447745822</v>
       </c>
       <c r="H102" s="72" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I102" s="72">
         <v>1.488685015948713E-5</v>
@@ -13243,7 +13656,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H103" s="72" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I103" s="72">
         <v>9.9999844063238861</v>
@@ -13263,7 +13676,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H104" s="72" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I104" s="72">
         <v>-0.99999843680342448</v>
@@ -13303,7 +13716,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H106" s="72" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I106" s="72">
         <v>1.00000160000256</v>
@@ -13323,7 +13736,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H107" s="72" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I107" s="72">
         <v>1.043230180901704E-7</v>
@@ -13343,7 +13756,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H108" s="72" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I108" s="72">
         <v>1.7908888342222789E-7</v>
@@ -13363,7 +13776,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H109" s="72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I109" s="72">
         <v>1.000001850003422</v>
@@ -13383,7 +13796,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H110" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I110" s="72">
         <v>0</v>
@@ -13403,7 +13816,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H111" s="72" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I111" s="72">
         <v>5.1191618520369837E-7</v>
@@ -13423,7 +13836,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H112" s="72" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I112" s="72">
         <v>-9.5668684700356169E-8</v>
@@ -13463,7 +13876,7 @@
     </row>
     <row r="114" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H114" s="72" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I114" s="72">
         <v>-2.7182644622249209E-7</v>
@@ -13483,7 +13896,7 @@
     </row>
     <row r="115" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H115" s="72" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I115" s="72">
         <v>3.3608501923704182E-7</v>
@@ -13623,7 +14036,7 @@
     </row>
     <row r="122" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H122" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I122" s="72">
         <v>108.0215824351238</v>
@@ -13643,7 +14056,7 @@
     </row>
     <row r="123" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H123" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I123" s="72">
         <v>108.0203274158299</v>
@@ -13663,7 +14076,7 @@
     </row>
     <row r="124" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H124" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I124" s="72">
         <v>108.0121385278194</v>
@@ -13683,7 +14096,7 @@
     </row>
     <row r="125" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H125" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I125" s="72">
         <v>108.01138146764011</v>
@@ -13703,7 +14116,7 @@
     </row>
     <row r="126" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H126" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I126" s="72">
         <v>108.00459564532019</v>
@@ -13723,7 +14136,7 @@
     </row>
     <row r="127" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H127" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I127" s="72">
         <v>107.99147381796</v>
@@ -13743,7 +14156,7 @@
     </row>
     <row r="128" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H128" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I128" s="72">
         <v>107.99143848154711</v>
@@ -13763,7 +14176,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H129" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I129" s="72">
         <v>107.9860953085427</v>
@@ -13783,7 +14196,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H130" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I130" s="72">
         <v>1.00000250000625</v>
@@ -13803,7 +14216,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H131" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I131" s="72">
         <v>1</v>
@@ -13823,7 +14236,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="72" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B133" s="72" t="s">
         <v>98</v>
@@ -13831,7 +14244,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="72" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B134" s="72" t="s">
         <v>43</v>
@@ -13839,33 +14252,33 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="72" t="s">
+        <v>448</v>
+      </c>
+      <c r="B135" s="72" t="s">
+        <v>503</v>
+      </c>
+      <c r="C135" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="D135" s="72" t="s">
         <v>451</v>
       </c>
-      <c r="B135" s="72" t="s">
-        <v>506</v>
-      </c>
-      <c r="C135" s="72" t="s">
+      <c r="E135" s="72" t="s">
+        <v>452</v>
+      </c>
+      <c r="F135" s="72" t="s">
         <v>453</v>
-      </c>
-      <c r="D135" s="72" t="s">
-        <v>454</v>
-      </c>
-      <c r="E135" s="72" t="s">
-        <v>455</v>
-      </c>
-      <c r="F135" s="72" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="72" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B136" s="72" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C136" s="72" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D136" s="72">
         <v>20.513381071408851</v>
@@ -13879,13 +14292,13 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="72" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B137" s="72">
         <v>1000000</v>
       </c>
       <c r="C137" s="72" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D137" s="72">
         <v>0.29654763732883982</v>
@@ -13899,7 +14312,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C138" s="72" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D138" s="72">
         <v>2.720009063890807</v>
@@ -13913,45 +14326,45 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H139" s="72" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="72" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B140" s="72" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C140" s="72" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D140" s="72" t="s">
         <v>156</v>
       </c>
       <c r="E140" s="72" t="s">
+        <v>464</v>
+      </c>
+      <c r="F140" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="H140" s="72" t="s">
+        <v>466</v>
+      </c>
+      <c r="I140" s="72" t="s">
         <v>467</v>
       </c>
-      <c r="F140" s="72" t="s">
-        <v>468</v>
-      </c>
-      <c r="H140" s="72" t="s">
-        <v>469</v>
-      </c>
-      <c r="I140" s="72" t="s">
-        <v>470</v>
-      </c>
       <c r="J140" s="72" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K140" s="72" t="s">
         <v>156</v>
       </c>
       <c r="L140" s="72" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M140" s="72" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -13974,7 +14387,7 @@
         <v>1.9955729713381429</v>
       </c>
       <c r="H141" s="72" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I141" s="72">
         <v>-0.1000001362415924</v>
@@ -13994,7 +14407,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H142" s="72" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I142" s="72">
         <v>-4.6635869559315688E-7</v>
@@ -14014,7 +14427,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H143" s="72" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I143" s="72">
         <v>9.9999810128103883E-2</v>
@@ -14034,7 +14447,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H144" s="72" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I144" s="72">
         <v>-2.8795600117035182E-7</v>
@@ -14054,7 +14467,7 @@
     </row>
     <row r="145" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H145" s="72" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I145" s="72">
         <v>2.1772725512390919E-7</v>
@@ -14074,7 +14487,7 @@
     </row>
     <row r="146" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H146" s="72" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I146" s="72">
         <v>-2.9546741621585182E-7</v>
@@ -14094,7 +14507,7 @@
     </row>
     <row r="147" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H147" s="72" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I147" s="72">
         <v>-1.157637159856024E-7</v>
@@ -14114,7 +14527,7 @@
     </row>
     <row r="148" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H148" s="72" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I148" s="72">
         <v>-7.0862656918973481E-8</v>
@@ -14134,7 +14547,7 @@
     </row>
     <row r="149" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H149" s="72" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I149" s="72">
         <v>-1.9410849686831329E-8</v>
@@ -14154,7 +14567,7 @@
     </row>
     <row r="150" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H150" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I150" s="72">
         <v>1.00000250000625</v>
@@ -14174,7 +14587,7 @@
     </row>
     <row r="151" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H151" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I151" s="72">
         <v>1</v>
@@ -14214,7 +14627,7 @@
     </row>
     <row r="153" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H153" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I153" s="72">
         <v>0</v>
@@ -14374,7 +14787,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H161" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I161" s="72">
         <v>108.00921334319369</v>
@@ -14394,7 +14807,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H162" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I162" s="72">
         <v>108.0056578257673</v>
@@ -14414,7 +14827,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H163" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I163" s="72">
         <v>108.0055328430682</v>
@@ -14434,7 +14847,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H164" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I164" s="72">
         <v>108.0040163573284</v>
@@ -14454,7 +14867,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H165" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I165" s="72">
         <v>108.0007817037657</v>
@@ -14474,7 +14887,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H166" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I166" s="72">
         <v>107.9999662057879</v>
@@ -14494,7 +14907,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H167" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I167" s="72">
         <v>107.9973809439271</v>
@@ -14514,7 +14927,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H168" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I168" s="72">
         <v>107.9955274165689</v>
@@ -14552,7 +14965,7 @@
         <v>1.9959007672622151</v>
       </c>
       <c r="H170" s="72" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I170" s="72">
         <v>-9.9999954294226007E-2</v>
@@ -14572,7 +14985,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H171" s="72" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I171" s="72">
         <v>9.9999358003854816E-2</v>
@@ -14592,7 +15005,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H172" s="72" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I172" s="72">
         <v>7.0213412539045406E-7</v>
@@ -14612,7 +15025,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H173" s="72" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I173" s="72">
         <v>-2.8795600117035182E-7</v>
@@ -14632,7 +15045,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H174" s="72" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I174" s="72">
         <v>2.1772725512390919E-7</v>
@@ -14652,7 +15065,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H175" s="72" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I175" s="72">
         <v>-2.9546741621585182E-7</v>
@@ -14672,7 +15085,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H176" s="72" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I176" s="72">
         <v>-1.157637159856024E-7</v>
@@ -14692,7 +15105,7 @@
     </row>
     <row r="177" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H177" s="72" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I177" s="72">
         <v>-7.0862656918973481E-8</v>
@@ -14712,7 +15125,7 @@
     </row>
     <row r="178" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H178" s="72" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I178" s="72">
         <v>-1.9410849686831329E-8</v>
@@ -14732,7 +15145,7 @@
     </row>
     <row r="179" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H179" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I179" s="72">
         <v>1.00000250000625</v>
@@ -14752,7 +15165,7 @@
     </row>
     <row r="180" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H180" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I180" s="72">
         <v>1</v>
@@ -14792,7 +15205,7 @@
     </row>
     <row r="182" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H182" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I182" s="72">
         <v>0</v>
@@ -14952,7 +15365,7 @@
     </row>
     <row r="190" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H190" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I190" s="72">
         <v>108.00921334319369</v>
@@ -14972,7 +15385,7 @@
     </row>
     <row r="191" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H191" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I191" s="72">
         <v>108.0056578257673</v>
@@ -14992,7 +15405,7 @@
     </row>
     <row r="192" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H192" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I192" s="72">
         <v>108.0055328430682</v>
@@ -15012,7 +15425,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H193" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I193" s="72">
         <v>108.0040163573284</v>
@@ -15032,7 +15445,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H194" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I194" s="72">
         <v>108.0007817037657</v>
@@ -15052,7 +15465,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H195" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I195" s="72">
         <v>107.9999662057879</v>
@@ -15072,7 +15485,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H196" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I196" s="72">
         <v>107.9973809439271</v>
@@ -15092,7 +15505,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H197" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I197" s="72">
         <v>107.9955274165689</v>
@@ -15130,7 +15543,7 @@
         <v>2.003634662520192</v>
       </c>
       <c r="H199" s="72" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I199" s="72">
         <v>-3.6803975193013112E-6</v>
@@ -15150,7 +15563,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H200" s="72" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I200" s="72">
         <v>1.0000009159190939</v>
@@ -15170,7 +15583,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H201" s="72" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I201" s="72">
         <v>-0.99999736626106461</v>
@@ -15210,7 +15623,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H203" s="72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I203" s="72">
         <v>1.00000160000256</v>
@@ -15230,7 +15643,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H204" s="72" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I204" s="72">
         <v>1.00000160000256</v>
@@ -15250,7 +15663,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H205" s="72" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I205" s="72">
         <v>1.5886936709526759E-7</v>
@@ -15270,7 +15683,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H206" s="72" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I206" s="72">
         <v>-1.5378274489736499E-7</v>
@@ -15290,7 +15703,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H207" s="72" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I207" s="72">
         <v>1.350538800762791E-7</v>
@@ -15310,7 +15723,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H208" s="72" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I208" s="72">
         <v>2.2452433351564569E-8</v>
@@ -15330,7 +15743,7 @@
     </row>
     <row r="209" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H209" s="72" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I209" s="72">
         <v>3.2532898363602903E-7</v>
@@ -15350,7 +15763,7 @@
     </row>
     <row r="210" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H210" s="72" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I210" s="72">
         <v>-7.6384269314035401E-8</v>
@@ -15370,7 +15783,7 @@
     </row>
     <row r="211" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H211" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I211" s="72">
         <v>0</v>
@@ -15530,7 +15943,7 @@
     </row>
     <row r="219" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H219" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I219" s="72">
         <v>1.00000250000625</v>
@@ -15550,7 +15963,7 @@
     </row>
     <row r="220" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H220" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I220" s="72">
         <v>108.0069272008096</v>
@@ -15570,7 +15983,7 @@
     </row>
     <row r="221" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H221" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I221" s="72">
         <v>108.0061620261077</v>
@@ -15590,7 +16003,7 @@
     </row>
     <row r="222" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H222" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I222" s="72">
         <v>108.0019303770801</v>
@@ -15610,7 +16023,7 @@
     </row>
     <row r="223" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H223" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I223" s="72">
         <v>108.0010792080317</v>
@@ -15630,7 +16043,7 @@
     </row>
     <row r="224" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H224" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I224" s="72">
         <v>108.000590915364</v>
@@ -15650,7 +16063,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H225" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I225" s="72">
         <v>108.00054467507979</v>
@@ -15670,7 +16083,7 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H226" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I226" s="72">
         <v>107.9974569756199</v>
@@ -15690,7 +16103,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H227" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I227" s="72">
         <v>107.9948852795734</v>
@@ -15710,7 +16123,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H228" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I228" s="72">
         <v>1</v>
@@ -15748,7 +16161,7 @@
         <v>2.0029532642336831</v>
       </c>
       <c r="H230" s="72" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I230" s="72">
         <v>-0.99999637364015848</v>
@@ -15768,7 +16181,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H231" s="72" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I231" s="72">
         <v>1.3842157409625779E-6</v>
@@ -15788,7 +16201,7 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H232" s="72" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I232" s="72">
         <v>0.99999985476856867</v>
@@ -15828,7 +16241,7 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H234" s="72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I234" s="72">
         <v>1.00000160000256</v>
@@ -15848,7 +16261,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H235" s="72" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I235" s="72">
         <v>1.00000160000256</v>
@@ -15868,7 +16281,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H236" s="72" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I236" s="72">
         <v>1.5886936709526759E-7</v>
@@ -15888,7 +16301,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H237" s="72" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I237" s="72">
         <v>-1.5378274489736499E-7</v>
@@ -15908,7 +16321,7 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H238" s="72" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I238" s="72">
         <v>1.350538800762791E-7</v>
@@ -15928,7 +16341,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H239" s="72" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I239" s="72">
         <v>2.2452433351564569E-8</v>
@@ -15948,7 +16361,7 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H240" s="72" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I240" s="72">
         <v>3.2532898363602903E-7</v>
@@ -15968,7 +16381,7 @@
     </row>
     <row r="241" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H241" s="72" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I241" s="72">
         <v>-7.6384269314035401E-8</v>
@@ -15988,7 +16401,7 @@
     </row>
     <row r="242" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H242" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I242" s="72">
         <v>0</v>
@@ -16148,7 +16561,7 @@
     </row>
     <row r="250" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H250" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I250" s="72">
         <v>108.0069272008096</v>
@@ -16168,7 +16581,7 @@
     </row>
     <row r="251" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H251" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I251" s="72">
         <v>108.0061620261077</v>
@@ -16188,7 +16601,7 @@
     </row>
     <row r="252" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H252" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I252" s="72">
         <v>108.0019303770801</v>
@@ -16208,7 +16621,7 @@
     </row>
     <row r="253" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H253" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I253" s="72">
         <v>108.0010792080317</v>
@@ -16228,7 +16641,7 @@
     </row>
     <row r="254" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H254" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I254" s="72">
         <v>108.000590915364</v>
@@ -16248,7 +16661,7 @@
     </row>
     <row r="255" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H255" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I255" s="72">
         <v>108.00054467507979</v>
@@ -16268,7 +16681,7 @@
     </row>
     <row r="256" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H256" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I256" s="72">
         <v>107.9974569756199</v>
@@ -16288,7 +16701,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H257" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I257" s="72">
         <v>107.9948852795734</v>
@@ -16308,7 +16721,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H258" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I258" s="72">
         <v>1.00000250000625</v>
@@ -16328,7 +16741,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H259" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I259" s="72">
         <v>1</v>
@@ -16366,7 +16779,7 @@
         <v>2.003152811651832</v>
       </c>
       <c r="H261" s="72" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I261" s="72">
         <v>-9.999960350082322</v>
@@ -16386,7 +16799,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H262" s="72" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I262" s="72">
         <v>3.183769613441527E-5</v>
@@ -16406,7 +16819,7 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H263" s="72" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I263" s="72">
         <v>9.9999867016247457</v>
@@ -16446,7 +16859,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H265" s="72" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I265" s="72">
         <v>1.000001850003422</v>
@@ -16466,7 +16879,7 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H266" s="72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I266" s="72">
         <v>1.000001850003422</v>
@@ -16486,7 +16899,7 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H267" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I267" s="72">
         <v>0</v>
@@ -16506,7 +16919,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H268" s="72" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I268" s="72">
         <v>3.1999798081163638E-7</v>
@@ -16526,7 +16939,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H269" s="72" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I269" s="72">
         <v>3.6935355802024509E-7</v>
@@ -16566,7 +16979,7 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H271" s="72" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I271" s="72">
         <v>1.7103412922069461E-7</v>
@@ -16586,7 +16999,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H272" s="72" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I272" s="72">
         <v>-1.7634512055898261E-7</v>
@@ -16606,7 +17019,7 @@
     </row>
     <row r="273" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H273" s="72" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I273" s="72">
         <v>-2.266782663477714E-7</v>
@@ -16626,7 +17039,7 @@
     </row>
     <row r="274" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H274" s="72" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I274" s="72">
         <v>-3.9791142967976958E-8</v>
@@ -16766,7 +17179,7 @@
     </row>
     <row r="281" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H281" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I281" s="72">
         <v>1.00000250000625</v>
@@ -16786,7 +17199,7 @@
     </row>
     <row r="282" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H282" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I282" s="72">
         <v>108.01653297696789</v>
@@ -16806,7 +17219,7 @@
     </row>
     <row r="283" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H283" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I283" s="72">
         <v>108.01218533535361</v>
@@ -16826,7 +17239,7 @@
     </row>
     <row r="284" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H284" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I284" s="72">
         <v>108.00629730178289</v>
@@ -16846,7 +17259,7 @@
     </row>
     <row r="285" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H285" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I285" s="72">
         <v>108.0051231438473</v>
@@ -16866,7 +17279,7 @@
     </row>
     <row r="286" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H286" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I286" s="72">
         <v>107.989680919652</v>
@@ -16886,7 +17299,7 @@
     </row>
     <row r="287" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H287" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I287" s="72">
         <v>107.9844020638544</v>
@@ -16906,7 +17319,7 @@
     </row>
     <row r="288" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H288" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I288" s="72">
         <v>107.9812933253807</v>
@@ -16926,7 +17339,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H289" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I289" s="72">
         <v>107.9802164681773</v>
@@ -16946,7 +17359,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H290" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I290" s="72">
         <v>1</v>
@@ -16984,7 +17397,7 @@
         <v>2.0040164754470342</v>
       </c>
       <c r="H292" s="72" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I292" s="72">
         <v>-9.9999834942891539</v>
@@ -17004,7 +17417,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H293" s="72" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I293" s="72">
         <v>-1.032282241689853E-5</v>
@@ -17024,7 +17437,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H294" s="72" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I294" s="72">
         <v>9.9999877682991176</v>
@@ -17064,7 +17477,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H296" s="72" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I296" s="72">
         <v>1.000001850003422</v>
@@ -17084,7 +17497,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H297" s="72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I297" s="72">
         <v>1.000001850003422</v>
@@ -17104,7 +17517,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H298" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I298" s="72">
         <v>0</v>
@@ -17124,7 +17537,7 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H299" s="72" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I299" s="72">
         <v>3.1999798081163638E-7</v>
@@ -17144,7 +17557,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H300" s="72" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I300" s="72">
         <v>3.6935355802024509E-7</v>
@@ -17184,7 +17597,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H302" s="72" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I302" s="72">
         <v>1.7103412922069461E-7</v>
@@ -17204,7 +17617,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H303" s="72" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I303" s="72">
         <v>-1.7634512055898261E-7</v>
@@ -17224,7 +17637,7 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H304" s="72" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I304" s="72">
         <v>-2.266782663477714E-7</v>
@@ -17244,7 +17657,7 @@
     </row>
     <row r="305" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H305" s="72" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I305" s="72">
         <v>-3.9791142967976958E-8</v>
@@ -17384,7 +17797,7 @@
     </row>
     <row r="312" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H312" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I312" s="72">
         <v>108.01653297696789</v>
@@ -17404,7 +17817,7 @@
     </row>
     <row r="313" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H313" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I313" s="72">
         <v>108.01218533535361</v>
@@ -17424,7 +17837,7 @@
     </row>
     <row r="314" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H314" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I314" s="72">
         <v>108.00629730178289</v>
@@ -17444,7 +17857,7 @@
     </row>
     <row r="315" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H315" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I315" s="72">
         <v>108.0051231438473</v>
@@ -17464,7 +17877,7 @@
     </row>
     <row r="316" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H316" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I316" s="72">
         <v>107.989680919652</v>
@@ -17484,7 +17897,7 @@
     </row>
     <row r="317" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H317" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I317" s="72">
         <v>107.9844020638544</v>
@@ -17504,7 +17917,7 @@
     </row>
     <row r="318" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H318" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I318" s="72">
         <v>107.9812933253807</v>
@@ -17524,7 +17937,7 @@
     </row>
     <row r="319" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H319" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I319" s="72">
         <v>107.9802164681773</v>
@@ -17544,7 +17957,7 @@
     </row>
     <row r="320" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H320" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I320" s="72">
         <v>1.00000250000625</v>
@@ -17564,7 +17977,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H321" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I321" s="72">
         <v>1</v>
@@ -17584,7 +17997,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="72" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B323" s="72" t="s">
         <v>124</v>
@@ -17592,7 +18005,7 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="72" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B324" s="72" t="s">
         <v>123</v>
@@ -17600,33 +18013,33 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="72" t="s">
+        <v>448</v>
+      </c>
+      <c r="B325" s="72" t="s">
+        <v>517</v>
+      </c>
+      <c r="C325" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="D325" s="72" t="s">
         <v>451</v>
       </c>
-      <c r="B325" s="72" t="s">
-        <v>520</v>
-      </c>
-      <c r="C325" s="72" t="s">
+      <c r="E325" s="72" t="s">
+        <v>452</v>
+      </c>
+      <c r="F325" s="72" t="s">
         <v>453</v>
-      </c>
-      <c r="D325" s="72" t="s">
-        <v>454</v>
-      </c>
-      <c r="E325" s="72" t="s">
-        <v>455</v>
-      </c>
-      <c r="F325" s="72" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="72" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B326" s="72" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C326" s="72" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D326" s="72">
         <v>20.50056145054312</v>
@@ -17640,13 +18053,13 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="72" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B327" s="72">
         <v>100000000</v>
       </c>
       <c r="C327" s="72" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D327" s="72">
         <v>0.30119256946549011</v>
@@ -17660,7 +18073,7 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C328" s="72" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D328" s="72">
         <v>2.842317172186597</v>
@@ -17674,45 +18087,45 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H329" s="72" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="72" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B330" s="72" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C330" s="72" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D330" s="72" t="s">
         <v>156</v>
       </c>
       <c r="E330" s="72" t="s">
+        <v>464</v>
+      </c>
+      <c r="F330" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="H330" s="72" t="s">
+        <v>466</v>
+      </c>
+      <c r="I330" s="72" t="s">
         <v>467</v>
       </c>
-      <c r="F330" s="72" t="s">
-        <v>468</v>
-      </c>
-      <c r="H330" s="72" t="s">
-        <v>469</v>
-      </c>
-      <c r="I330" s="72" t="s">
-        <v>470</v>
-      </c>
       <c r="J330" s="72" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K330" s="72" t="s">
         <v>156</v>
       </c>
       <c r="L330" s="72" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M330" s="72" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -17735,7 +18148,7 @@
         <v>1.9947990207530779</v>
       </c>
       <c r="H331" s="72" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I331" s="72">
         <v>-9.9998122319977477E-3</v>
@@ -17755,7 +18168,7 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H332" s="72" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I332" s="72">
         <v>-2.891694682635999E-7</v>
@@ -17775,7 +18188,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H333" s="72" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I333" s="72">
         <v>-2.7071424382348861E-7</v>
@@ -17795,7 +18208,7 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H334" s="72" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I334" s="72">
         <v>1.101983103055069E-7</v>
@@ -17815,7 +18228,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H335" s="72" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I335" s="72">
         <v>6.0506692722657893E-8</v>
@@ -17835,7 +18248,7 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H336" s="72" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I336" s="72">
         <v>-1.054726596527278E-7</v>
@@ -17855,7 +18268,7 @@
     </row>
     <row r="337" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H337" s="72" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I337" s="72">
         <v>9.9999264653670511E-2</v>
@@ -17875,7 +18288,7 @@
     </row>
     <row r="338" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H338" s="72" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I338" s="72">
         <v>1.7078281539309991E-7</v>
@@ -17895,7 +18308,7 @@
     </row>
     <row r="339" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H339" s="72" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I339" s="72">
         <v>-3.571497444227242E-7</v>
@@ -17915,7 +18328,7 @@
     </row>
     <row r="340" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H340" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I340" s="72">
         <v>1.00000250000625</v>
@@ -17935,7 +18348,7 @@
     </row>
     <row r="341" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H341" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I341" s="72">
         <v>1</v>
@@ -17975,7 +18388,7 @@
     </row>
     <row r="343" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H343" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I343" s="72">
         <v>0</v>
@@ -18135,7 +18548,7 @@
     </row>
     <row r="351" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H351" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I351" s="72">
         <v>108.01581047535871</v>
@@ -18155,7 +18568,7 @@
     </row>
     <row r="352" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H352" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I352" s="72">
         <v>108.0116558640706</v>
@@ -18175,7 +18588,7 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H353" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I353" s="72">
         <v>108.0107472458245</v>
@@ -18195,7 +18608,7 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H354" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I354" s="72">
         <v>108.01069063959019</v>
@@ -18215,7 +18628,7 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H355" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I355" s="72">
         <v>108.002842952066</v>
@@ -18235,7 +18648,7 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H356" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I356" s="72">
         <v>107.9988264993607</v>
@@ -18255,7 +18668,7 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H357" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I357" s="72">
         <v>107.99741327653101</v>
@@ -18275,7 +18688,7 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H358" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I358" s="72">
         <v>107.9941174313236</v>
@@ -18313,7 +18726,7 @@
         <v>1.992363127862333</v>
       </c>
       <c r="H360" s="72" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I360" s="72">
         <v>-2.1913311786864691E-7</v>
@@ -18333,7 +18746,7 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H361" s="72" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I361" s="72">
         <v>1.000020765938491E-2</v>
@@ -18353,7 +18766,7 @@
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H362" s="72" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I362" s="72">
         <v>-2.7071424382348861E-7</v>
@@ -18373,7 +18786,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H363" s="72" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I363" s="72">
         <v>1.101983103055069E-7</v>
@@ -18393,7 +18806,7 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H364" s="72" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I364" s="72">
         <v>6.0506692722657893E-8</v>
@@ -18413,7 +18826,7 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H365" s="72" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I365" s="72">
         <v>-1.054726596527278E-7</v>
@@ -18433,7 +18846,7 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H366" s="72" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I366" s="72">
         <v>-9.9999587784921906E-2</v>
@@ -18453,7 +18866,7 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H367" s="72" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I367" s="72">
         <v>1.7078281539309991E-7</v>
@@ -18473,7 +18886,7 @@
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H368" s="72" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I368" s="72">
         <v>-3.571497444227242E-7</v>
@@ -18493,7 +18906,7 @@
     </row>
     <row r="369" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H369" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I369" s="72">
         <v>1.00000250000625</v>
@@ -18513,7 +18926,7 @@
     </row>
     <row r="370" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H370" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I370" s="72">
         <v>1</v>
@@ -18553,7 +18966,7 @@
     </row>
     <row r="372" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H372" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I372" s="72">
         <v>0</v>
@@ -18713,7 +19126,7 @@
     </row>
     <row r="380" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H380" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I380" s="72">
         <v>108.01581047535871</v>
@@ -18733,7 +19146,7 @@
     </row>
     <row r="381" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H381" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I381" s="72">
         <v>108.0116558640706</v>
@@ -18753,7 +19166,7 @@
     </row>
     <row r="382" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H382" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I382" s="72">
         <v>108.0107472458245</v>
@@ -18773,7 +19186,7 @@
     </row>
     <row r="383" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H383" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I383" s="72">
         <v>108.01069063959019</v>
@@ -18793,7 +19206,7 @@
     </row>
     <row r="384" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H384" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I384" s="72">
         <v>108.002842952066</v>
@@ -18813,7 +19226,7 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H385" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I385" s="72">
         <v>107.9988264993607</v>
@@ -18833,7 +19246,7 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H386" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I386" s="72">
         <v>107.99741327653101</v>
@@ -18853,7 +19266,7 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H387" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I387" s="72">
         <v>107.9941174313236</v>
@@ -18891,7 +19304,7 @@
         <v>2.0022356476242251</v>
       </c>
       <c r="H389" s="72" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I389" s="72">
         <v>-9.9999750454204783E-2</v>
@@ -18911,7 +19324,7 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H390" s="72" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I390" s="72">
         <v>-5.4923730617626944E-7</v>
@@ -18931,7 +19344,7 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H391" s="72" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I391" s="72">
         <v>0.9999996665834251</v>
@@ -18951,7 +19364,7 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H392" s="72" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I392" s="72">
         <v>1.2887184826873221E-7</v>
@@ -18971,7 +19384,7 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H393" s="72" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I393" s="72">
         <v>3.2659315810514668E-7</v>
@@ -18991,7 +19404,7 @@
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H394" s="72" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I394" s="72">
         <v>4.4357970087597112E-7</v>
@@ -19011,7 +19424,7 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H395" s="72" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I395" s="72">
         <v>-3.9739597528511632E-8</v>
@@ -19031,7 +19444,7 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H396" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I396" s="72">
         <v>1.00000250000625</v>
@@ -19071,7 +19484,7 @@
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H398" s="72" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I398" s="72">
         <v>1.00000160000256</v>
@@ -19091,7 +19504,7 @@
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H399" s="72" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I399" s="72">
         <v>-8.3892529561174833E-8</v>
@@ -19111,7 +19524,7 @@
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H400" s="72" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I400" s="72">
         <v>1.4318234606517781E-7</v>
@@ -19131,7 +19544,7 @@
     </row>
     <row r="401" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H401" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I401" s="72">
         <v>0</v>
@@ -19291,7 +19704,7 @@
     </row>
     <row r="409" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H409" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I409" s="72">
         <v>108.011881871909</v>
@@ -19311,7 +19724,7 @@
     </row>
     <row r="410" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H410" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I410" s="72">
         <v>108.01081149552191</v>
@@ -19331,7 +19744,7 @@
     </row>
     <row r="411" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H411" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I411" s="72">
         <v>108.0102436215834</v>
@@ -19351,7 +19764,7 @@
     </row>
     <row r="412" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H412" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I412" s="72">
         <v>108.00903057029549</v>
@@ -19371,7 +19784,7 @@
     </row>
     <row r="413" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H413" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I413" s="72">
         <v>108.0074552578905</v>
@@ -19391,7 +19804,7 @@
     </row>
     <row r="414" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H414" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I414" s="72">
         <v>108.0001177315828</v>
@@ -19411,7 +19824,7 @@
     </row>
     <row r="415" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H415" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I415" s="72">
         <v>107.9789050117991</v>
@@ -19431,7 +19844,7 @@
     </row>
     <row r="416" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H416" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I416" s="72">
         <v>107.9750690721323</v>
@@ -19451,7 +19864,7 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H417" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I417" s="72">
         <v>1</v>
@@ -19489,7 +19902,7 @@
         <v>2.0030310400912699</v>
       </c>
       <c r="H419" s="72" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I419" s="72">
         <v>-5.5183336622669574E-7</v>
@@ -19509,7 +19922,7 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H420" s="72" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I420" s="72">
         <v>9.9998578676185626E-2</v>
@@ -19529,7 +19942,7 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H421" s="72" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I421" s="72">
         <v>-1.000002406615095</v>
@@ -19549,7 +19962,7 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H422" s="72" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I422" s="72">
         <v>1.2887184826873221E-7</v>
@@ -19569,7 +19982,7 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H423" s="72" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I423" s="72">
         <v>3.2659315810514668E-7</v>
@@ -19589,7 +20002,7 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H424" s="72" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I424" s="72">
         <v>4.4357970087597112E-7</v>
@@ -19609,7 +20022,7 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H425" s="72" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I425" s="72">
         <v>-3.9739597528511632E-8</v>
@@ -19629,7 +20042,7 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H426" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I426" s="72">
         <v>1.00000250000625</v>
@@ -19669,7 +20082,7 @@
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H428" s="72" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I428" s="72">
         <v>1.00000160000256</v>
@@ -19689,7 +20102,7 @@
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H429" s="72" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I429" s="72">
         <v>-8.3892529561174833E-8</v>
@@ -19709,7 +20122,7 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H430" s="72" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I430" s="72">
         <v>1.4318234606517781E-7</v>
@@ -19729,7 +20142,7 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H431" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I431" s="72">
         <v>0</v>
@@ -19889,7 +20302,7 @@
     </row>
     <row r="439" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H439" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I439" s="72">
         <v>108.011881871909</v>
@@ -19909,7 +20322,7 @@
     </row>
     <row r="440" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H440" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I440" s="72">
         <v>108.01081149552191</v>
@@ -19929,7 +20342,7 @@
     </row>
     <row r="441" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H441" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I441" s="72">
         <v>108.0102436215834</v>
@@ -19949,7 +20362,7 @@
     </row>
     <row r="442" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H442" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I442" s="72">
         <v>108.00903057029549</v>
@@ -19969,7 +20382,7 @@
     </row>
     <row r="443" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H443" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I443" s="72">
         <v>108.0074552578905</v>
@@ -19989,7 +20402,7 @@
     </row>
     <row r="444" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H444" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I444" s="72">
         <v>108.0001177315828</v>
@@ -20009,7 +20422,7 @@
     </row>
     <row r="445" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H445" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I445" s="72">
         <v>107.9789050117991</v>
@@ -20029,7 +20442,7 @@
     </row>
     <row r="446" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H446" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I446" s="72">
         <v>107.9750690721323</v>
@@ -20049,7 +20462,7 @@
     </row>
     <row r="447" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H447" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I447" s="72">
         <v>1</v>
@@ -20087,7 +20500,7 @@
         <v>2.003267217733864</v>
       </c>
       <c r="H449" s="72" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I449" s="72">
         <v>-1.0000016969210741</v>
@@ -20107,7 +20520,7 @@
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H450" s="72" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I450" s="72">
         <v>-2.8196096354298438E-6</v>
@@ -20127,7 +20540,7 @@
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H451" s="72" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I451" s="72">
         <v>10.00002445846477</v>
@@ -20167,7 +20580,7 @@
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H453" s="72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I453" s="72">
         <v>1.00000160000256</v>
@@ -20187,7 +20600,7 @@
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H454" s="72" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I454" s="72">
         <v>4.4235771280743362E-8</v>
@@ -20207,7 +20620,7 @@
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H455" s="72" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I455" s="72">
         <v>7.2209246987649033E-8</v>
@@ -20227,7 +20640,7 @@
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H456" s="72" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I456" s="72">
         <v>-7.1000345332782564E-8</v>
@@ -20247,7 +20660,7 @@
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H457" s="72" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I457" s="72">
         <v>5.0454902356203246E-7</v>
@@ -20267,7 +20680,7 @@
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H458" s="72" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I458" s="72">
         <v>1.000001850003422</v>
@@ -20287,7 +20700,7 @@
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H459" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I459" s="72">
         <v>0</v>
@@ -20327,7 +20740,7 @@
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H461" s="72" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I461" s="72">
         <v>7.8263282877592342E-8</v>
@@ -20347,7 +20760,7 @@
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H462" s="72" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I462" s="72">
         <v>-2.231080179554421E-7</v>
@@ -20487,7 +20900,7 @@
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H469" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I469" s="72">
         <v>1.00000250000625</v>
@@ -20507,7 +20920,7 @@
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H470" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I470" s="72">
         <v>108.02862509212019</v>
@@ -20527,7 +20940,7 @@
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H471" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I471" s="72">
         <v>108.01327812715191</v>
@@ -20547,7 +20960,7 @@
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H472" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I472" s="72">
         <v>108.00617899086549</v>
@@ -20567,7 +20980,7 @@
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H473" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I473" s="72">
         <v>108.0046378266448</v>
@@ -20587,7 +21000,7 @@
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H474" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I474" s="72">
         <v>108.000550602727</v>
@@ -20607,7 +21020,7 @@
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H475" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I475" s="72">
         <v>107.9974772782673</v>
@@ -20627,7 +21040,7 @@
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H476" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I476" s="72">
         <v>107.9957950255278</v>
@@ -20647,7 +21060,7 @@
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H477" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I477" s="72">
         <v>107.99035415734301</v>
@@ -20667,7 +21080,7 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H478" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I478" s="72">
         <v>1</v>
@@ -20705,7 +21118,7 @@
         <v>2.0023078845873679</v>
       </c>
       <c r="H480" s="72" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I480" s="72">
         <v>3.7850573156504889E-6</v>
@@ -20725,7 +21138,7 @@
     </row>
     <row r="481" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H481" s="72" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I481" s="72">
         <v>1.0000002630139899</v>
@@ -20745,7 +21158,7 @@
     </row>
     <row r="482" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H482" s="72" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I482" s="72">
         <v>-10.00002185654624</v>
@@ -20785,7 +21198,7 @@
     </row>
     <row r="484" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H484" s="72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I484" s="72">
         <v>1.00000160000256</v>
@@ -20805,7 +21218,7 @@
     </row>
     <row r="485" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H485" s="72" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I485" s="72">
         <v>4.4235771280743362E-8</v>
@@ -20825,7 +21238,7 @@
     </row>
     <row r="486" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H486" s="72" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I486" s="72">
         <v>7.2209246987649033E-8</v>
@@ -20845,7 +21258,7 @@
     </row>
     <row r="487" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H487" s="72" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I487" s="72">
         <v>-7.1000345332782564E-8</v>
@@ -20865,7 +21278,7 @@
     </row>
     <row r="488" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H488" s="72" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I488" s="72">
         <v>5.0454902356203246E-7</v>
@@ -20885,7 +21298,7 @@
     </row>
     <row r="489" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H489" s="72" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I489" s="72">
         <v>1.000001850003422</v>
@@ -20905,7 +21318,7 @@
     </row>
     <row r="490" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H490" s="72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I490" s="72">
         <v>0</v>
@@ -20945,7 +21358,7 @@
     </row>
     <row r="492" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H492" s="72" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I492" s="72">
         <v>7.8263282877592342E-8</v>
@@ -20965,7 +21378,7 @@
     </row>
     <row r="493" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H493" s="72" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I493" s="72">
         <v>-2.231080179554421E-7</v>
@@ -21105,7 +21518,7 @@
     </row>
     <row r="500" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H500" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I500" s="72">
         <v>1.00000250000625</v>
@@ -21125,7 +21538,7 @@
     </row>
     <row r="501" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H501" s="72" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I501" s="72">
         <v>108.02862509212019</v>
@@ -21145,7 +21558,7 @@
     </row>
     <row r="502" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H502" s="72" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I502" s="72">
         <v>108.01327812715191</v>
@@ -21165,7 +21578,7 @@
     </row>
     <row r="503" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H503" s="72" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I503" s="72">
         <v>108.00617899086549</v>
@@ -21185,7 +21598,7 @@
     </row>
     <row r="504" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H504" s="72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I504" s="72">
         <v>108.0046378266448</v>
@@ -21205,7 +21618,7 @@
     </row>
     <row r="505" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H505" s="72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I505" s="72">
         <v>108.000550602727</v>
@@ -21225,7 +21638,7 @@
     </row>
     <row r="506" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H506" s="72" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I506" s="72">
         <v>107.9974772782673</v>
@@ -21245,7 +21658,7 @@
     </row>
     <row r="507" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H507" s="72" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I507" s="72">
         <v>107.9957950255278</v>
@@ -21265,7 +21678,7 @@
     </row>
     <row r="508" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H508" s="72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I508" s="72">
         <v>107.99035415734301</v>
@@ -21285,7 +21698,7 @@
     </row>
     <row r="509" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H509" s="72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I509" s="72">
         <v>1</v>

--- a/IVY_template.xlsx
+++ b/IVY_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MSL\Private\Electricity\Staff\TBL\GitHub\IVY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A4890704-43F8-44D0-8F6E-ACEB8E759EF4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DDF00882-5EAA-4F0F-AEB5-CDAE641D807A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="11805" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
